--- a/nbadata2950.xlsx
+++ b/nbadata2950.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinshah/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishanweber/Documents/github/info2950project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2462E-A48B-2745-B21F-5ADD2E22620C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33ADC2F-F18E-9949-AE14-2A391CAFC79C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="7" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
   </bookViews>
@@ -318,8 +318,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10783,88 +10783,88 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -12728,11 +12728,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -12740,12 +12741,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{BBA2DF3A-24BC-254A-BDA2-062A0516058E}"/>
@@ -12794,88 +12794,88 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -13871,11 +13871,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -13883,12 +13884,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{0ECE5BCA-3FB5-F24C-8C19-20DD6A60F1CD}"/>
@@ -13923,88 +13923,88 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -15000,6 +15000,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
@@ -15007,18 +15019,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612747/traditional/?" xr:uid="{71C6B8D9-4641-184A-8FD9-6EB4A7EC4350}"/>

--- a/nbadata2950.xlsx
+++ b/nbadata2950.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishanweber/Documents/github/info2950project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\GitHub\info2950project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33ADC2F-F18E-9949-AE14-2A391CAFC79C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB246431-74C5-450C-AB35-56E85EB57F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="7" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="bubbleregtrad" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="73">
   <si>
     <t>TEAM</t>
   </si>
@@ -257,6 +257,9 @@
   <si>
     <t>AST Ratio</t>
   </si>
+  <si>
+    <t>AST RATIO</t>
+  </si>
 </sst>
 </file>
 
@@ -313,13 +316,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,9 +650,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -727,7 +736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -811,7 +820,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -895,7 +904,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -979,7 +988,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1063,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -1147,7 +1156,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -1231,7 +1240,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -1315,7 +1324,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -1399,7 +1408,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -1483,7 +1492,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -1567,7 +1576,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
@@ -1651,7 +1660,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>38</v>
@@ -1735,7 +1744,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -1819,7 +1828,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -1903,7 +1912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -1987,7 +1996,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>42</v>
@@ -2071,7 +2080,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>43</v>
@@ -2155,7 +2164,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
@@ -2239,7 +2248,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
@@ -2323,7 +2332,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -2407,7 +2416,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -2491,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -2872,13 +2881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D471B25-8BEA-4B4F-AB59-A4C139BE8287}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2962,7 +2969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3048,7 +3055,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3134,7 +3141,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3650,7 +3657,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3736,7 +3743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3822,7 +3829,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4338,7 +4345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4510,7 +4517,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4682,7 +4689,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4768,7 +4775,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4854,7 +4861,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4940,7 +4947,7 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5026,7 +5033,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5112,7 +5119,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5370,7 +5377,7 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5456,7 +5463,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5947,9 +5954,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6033,7 +6040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6205,7 +6212,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6291,7 +6298,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6377,7 +6384,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6463,7 +6470,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6549,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6721,7 +6728,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6807,7 +6814,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6979,7 +6986,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7065,7 +7072,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7151,7 +7158,7 @@
         <v>-14.4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>-23.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7632,9 +7639,9 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7718,7 +7725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7890,7 +7897,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7976,7 +7983,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8062,7 +8069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8148,7 +8155,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8234,7 +8241,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8406,7 +8413,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8492,7 +8499,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8578,7 +8585,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8664,7 +8671,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8750,7 +8757,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8836,7 +8843,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8922,7 +8929,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9008,7 +9015,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9317,9 +9324,9 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9379,7 +9386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9441,7 +9448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9503,7 +9510,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9565,7 +9572,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9627,7 +9634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9689,7 +9696,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9751,7 +9758,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -9813,7 +9820,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -9875,7 +9882,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9937,7 +9944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9999,7 +10006,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -10061,7 +10068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10123,7 +10130,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10185,7 +10192,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -10247,7 +10254,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -10371,7 +10378,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -10433,7 +10440,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -10495,7 +10502,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -10557,7 +10564,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10619,7 +10626,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10681,7 +10688,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10774,76 +10781,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D73AFF4-211A-5147-A978-CAD31B0BC31F}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -10853,10 +10861,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -10864,9 +10870,10 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T2" s="5"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10990,7 +10997,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11052,7 +11059,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11114,7 +11121,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -11238,7 +11245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11300,7 +11307,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -11362,7 +11369,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11424,7 +11431,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -11486,7 +11493,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -11548,7 +11555,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11610,7 +11617,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -11672,7 +11679,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11734,7 +11741,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11796,7 +11803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -11858,7 +11865,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11920,7 +11927,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11982,7 +11989,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -12044,7 +12051,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12106,7 +12113,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12168,7 +12175,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12230,7 +12237,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12292,7 +12299,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12354,7 +12361,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12416,7 +12423,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12478,7 +12485,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -12540,7 +12547,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12602,7 +12609,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -12664,7 +12671,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12727,25 +12734,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{BBA2DF3A-24BC-254A-BDA2-062A0516058E}"/>
@@ -12791,9 +12800,9 @@
       <selection sqref="A1:T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12853,7 +12862,7 @@
       </c>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -12877,7 +12886,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12939,7 +12948,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13001,7 +13010,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13063,7 +13072,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13125,7 +13134,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13187,7 +13196,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13249,7 +13258,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13311,7 +13320,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13373,7 +13382,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13435,7 +13444,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13497,7 +13506,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13559,7 +13568,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -13621,7 +13630,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -13683,7 +13692,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -13745,7 +13754,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13807,7 +13816,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -13871,12 +13880,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -13889,6 +13892,12 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{0ECE5BCA-3FB5-F24C-8C19-20DD6A60F1CD}"/>
@@ -13916,13 +13925,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B775558F-9E15-FF4C-B701-07AF3125B920}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -13982,7 +13991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -14006,7 +14015,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14068,7 +14077,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14130,7 +14139,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14192,7 +14201,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14254,7 +14263,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14316,7 +14325,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -14378,7 +14387,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14440,7 +14449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -14502,7 +14511,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14564,7 +14573,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -14626,7 +14635,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14688,7 +14697,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14750,7 +14759,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -14812,7 +14821,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14874,7 +14883,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -14936,7 +14945,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -15000,6 +15009,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -15012,13 +15028,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612747/traditional/?" xr:uid="{71C6B8D9-4641-184A-8FD9-6EB4A7EC4350}"/>

--- a/nbadata2950.xlsx
+++ b/nbadata2950.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\GitHub\info2950project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinshah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB246431-74C5-450C-AB35-56E85EB57F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9C207-8B17-1941-897B-367F67CDDCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="3" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="bubbleregtrad" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="71">
   <si>
     <t>TEAM</t>
   </si>
@@ -228,9 +228,6 @@
     <t>AST/TO</t>
   </si>
   <si>
-    <t>RATIO</t>
-  </si>
-  <si>
     <t>OREB%</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
   </si>
   <si>
     <t>PIE</t>
-  </si>
-  <si>
-    <t>AST Ratio</t>
   </si>
   <si>
     <t>AST RATIO</t>
@@ -316,19 +310,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,12 +633,12 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -736,7 +722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -820,7 +806,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -904,7 +890,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -988,7 +974,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1072,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -1156,7 +1142,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -1240,7 +1226,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -1324,7 +1310,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -1408,7 +1394,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -1492,7 +1478,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -1576,7 +1562,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
@@ -1660,7 +1646,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>38</v>
@@ -1744,7 +1730,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -1828,7 +1814,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -1912,7 +1898,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -1996,7 +1982,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>42</v>
@@ -2080,7 +2066,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>43</v>
@@ -2164,7 +2150,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
@@ -2248,7 +2234,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
@@ -2332,7 +2318,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -2416,7 +2402,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -2500,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -2881,11 +2867,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D471B25-8BEA-4B4F-AB59-A4C139BE8287}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2969,7 +2957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3055,7 +3043,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3141,7 +3129,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3227,7 +3215,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3313,7 +3301,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3399,7 +3387,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3485,7 +3473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3571,7 +3559,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3657,7 +3645,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3743,7 +3731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3829,7 +3817,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3915,7 +3903,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4001,7 +3989,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4087,7 +4075,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4173,7 +4161,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4259,7 +4247,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4345,7 +4333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4431,7 +4419,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4517,7 +4505,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4603,7 +4591,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4689,7 +4677,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4775,7 +4763,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4861,7 +4849,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4947,7 +4935,7 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5033,7 +5021,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5119,7 +5107,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5205,7 +5193,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5291,7 +5279,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5377,7 +5365,7 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5463,7 +5451,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5954,9 +5942,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6040,7 +6028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6126,7 +6114,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6212,7 +6200,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6298,7 +6286,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6384,7 +6372,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6470,7 +6458,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6556,7 +6544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6642,7 +6630,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6728,7 +6716,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6814,7 +6802,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6900,7 +6888,7 @@
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6986,7 +6974,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7072,7 +7060,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7158,7 +7146,7 @@
         <v>-14.4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -7244,7 +7232,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7330,7 +7318,7 @@
         <v>-23.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7635,13 +7623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97066FE1-24DA-FA4A-9C5B-CB0192C36653}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7725,7 +7713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7811,7 +7799,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7897,7 +7885,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7983,7 +7971,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8069,7 +8057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8155,7 +8143,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8241,7 +8229,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8327,7 +8315,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8413,7 +8401,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8499,7 +8487,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8585,7 +8573,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8671,7 +8659,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8757,7 +8745,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8843,7 +8831,7 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8929,7 +8917,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9015,7 +9003,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9324,9 +9312,9 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9359,34 +9347,34 @@
         <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9448,7 +9436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9510,7 +9498,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9572,7 +9560,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9634,7 +9622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9696,7 +9684,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9758,7 +9746,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -9820,7 +9808,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -9882,7 +9870,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9944,7 +9932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10006,7 +9994,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -10068,7 +10056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10130,7 +10118,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10192,7 +10180,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -10254,7 +10242,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -10316,7 +10304,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -10378,7 +10366,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -10440,7 +10428,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -10502,7 +10490,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -10564,7 +10552,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10626,7 +10614,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10688,7 +10676,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10781,662 +10769,699 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D73AFF4-211A-5147-A978-CAD31B0BC31F}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3130</v>
+      </c>
+      <c r="G2" s="1">
+        <v>112.3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="L2" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="O2" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="R2" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="S2" s="1">
+        <v>105.36</v>
+      </c>
+      <c r="T2" s="1">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
-        <v>3130</v>
+        <v>3034</v>
       </c>
       <c r="G3" s="1">
-        <v>112.3</v>
+        <v>112.6</v>
       </c>
       <c r="H3" s="1">
-        <v>101.6</v>
+        <v>105.5</v>
       </c>
       <c r="I3" s="1">
-        <v>10.7</v>
+        <v>7.1</v>
       </c>
       <c r="J3" s="1">
-        <v>59.5</v>
+        <v>60.3</v>
       </c>
       <c r="K3" s="1">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="L3" s="1">
-        <v>18.100000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="M3" s="1">
-        <v>24.1</v>
+        <v>28.4</v>
       </c>
       <c r="N3" s="1">
-        <v>77.599999999999994</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="O3" s="1">
-        <v>52.4</v>
+        <v>51.4</v>
       </c>
       <c r="P3" s="1">
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
       <c r="Q3" s="1">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="R3" s="1">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="S3" s="1">
-        <v>105.36</v>
+        <v>101.11</v>
       </c>
       <c r="T3" s="1">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
-        <v>3034</v>
+        <v>3092</v>
       </c>
       <c r="G4" s="1">
-        <v>112.6</v>
+        <v>111.3</v>
       </c>
       <c r="H4" s="1">
-        <v>105.5</v>
+        <v>104.9</v>
       </c>
       <c r="I4" s="1">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="J4" s="1">
-        <v>60.3</v>
+        <v>62.6</v>
       </c>
       <c r="K4" s="1">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="L4" s="1">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="M4" s="1">
-        <v>28.4</v>
+        <v>25.9</v>
       </c>
       <c r="N4" s="1">
-        <v>73.400000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="O4" s="1">
-        <v>51.4</v>
+        <v>49.4</v>
       </c>
       <c r="P4" s="1">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="Q4" s="1">
-        <v>54.8</v>
+        <v>53.6</v>
       </c>
       <c r="R4" s="1">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="S4" s="1">
-        <v>101.11</v>
+        <v>100.87</v>
       </c>
       <c r="T4" s="1">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>64</v>
       </c>
       <c r="D5" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="G5" s="1">
-        <v>111.3</v>
+        <v>112.9</v>
       </c>
       <c r="H5" s="1">
-        <v>104.9</v>
+        <v>106.6</v>
       </c>
       <c r="I5" s="1">
         <v>6.4</v>
       </c>
       <c r="J5" s="1">
-        <v>62.6</v>
+        <v>57.3</v>
       </c>
       <c r="K5" s="1">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="L5" s="1">
-        <v>18.2</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>25.9</v>
+        <v>28.4</v>
       </c>
       <c r="N5" s="1">
-        <v>71.5</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="O5" s="1">
-        <v>49.4</v>
+        <v>51.5</v>
       </c>
       <c r="P5" s="1">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="Q5" s="1">
-        <v>53.6</v>
+        <v>53.2</v>
       </c>
       <c r="R5" s="1">
         <v>57.4</v>
       </c>
       <c r="S5" s="1">
-        <v>100.87</v>
+        <v>102.39</v>
       </c>
       <c r="T5" s="1">
         <v>53.1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>64</v>
       </c>
       <c r="D6" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>3087</v>
+        <v>3097</v>
       </c>
       <c r="G6" s="1">
-        <v>112.9</v>
+        <v>112.3</v>
       </c>
       <c r="H6" s="1">
-        <v>106.6</v>
+        <v>106.2</v>
       </c>
       <c r="I6" s="1">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="J6" s="1">
-        <v>57.3</v>
+        <v>55.4</v>
       </c>
       <c r="K6" s="1">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="L6" s="1">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>28.4</v>
       </c>
       <c r="N6" s="1">
-        <v>73.400000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="O6" s="1">
-        <v>51.5</v>
+        <v>50.9</v>
       </c>
       <c r="P6" s="1">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="Q6" s="1">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="R6" s="1">
-        <v>57.4</v>
+        <v>56.7</v>
       </c>
       <c r="S6" s="1">
-        <v>102.39</v>
+        <v>99.78</v>
       </c>
       <c r="T6" s="1">
         <v>53.1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>43</v>
       </c>
       <c r="E7" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3097</v>
+        <v>3150</v>
       </c>
       <c r="G7" s="1">
-        <v>112.3</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1">
-        <v>106.2</v>
+        <v>108.9</v>
       </c>
       <c r="I7" s="1">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="J7" s="1">
-        <v>55.4</v>
+        <v>63.4</v>
       </c>
       <c r="K7" s="1">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="L7" s="1">
-        <v>16.600000000000001</v>
+        <v>19</v>
       </c>
       <c r="M7" s="1">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="N7" s="1">
-        <v>73.2</v>
+        <v>72.8</v>
       </c>
       <c r="O7" s="1">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="Q7" s="1">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="R7" s="1">
-        <v>56.7</v>
+        <v>56.4</v>
       </c>
       <c r="S7" s="1">
-        <v>99.78</v>
+        <v>97.66</v>
       </c>
       <c r="T7" s="1">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>3150</v>
+        <v>3165</v>
       </c>
       <c r="G8" s="1">
-        <v>112</v>
+        <v>112.2</v>
       </c>
       <c r="H8" s="1">
-        <v>108.9</v>
+        <v>109.2</v>
       </c>
       <c r="I8" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>63.4</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="K8" s="1">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="L8" s="1">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="M8" s="1">
-        <v>29.4</v>
+        <v>25.9</v>
       </c>
       <c r="N8" s="1">
-        <v>72.8</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="O8" s="1">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="P8" s="1">
-        <v>13.9</v>
+        <v>14.9</v>
       </c>
       <c r="Q8" s="1">
-        <v>53.2</v>
+        <v>54.9</v>
       </c>
       <c r="R8" s="1">
-        <v>56.4</v>
+        <v>58.7</v>
       </c>
       <c r="S8" s="1">
-        <v>97.66</v>
+        <v>98.46</v>
       </c>
       <c r="T8" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>41</v>
       </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
-        <v>3165</v>
+        <v>3077</v>
       </c>
       <c r="G9" s="1">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="H9" s="1">
-        <v>109.2</v>
+        <v>108.8</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J9" s="1">
-        <v>65.599999999999994</v>
+        <v>55.2</v>
       </c>
       <c r="K9" s="1">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="L9" s="1">
-        <v>18.8</v>
+        <v>16.7</v>
       </c>
       <c r="M9" s="1">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N9" s="1">
-        <v>75.599999999999994</v>
+        <v>74.7</v>
       </c>
       <c r="O9" s="1">
-        <v>51.6</v>
+        <v>51.2</v>
       </c>
       <c r="P9" s="1">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="1">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="R9" s="1">
         <v>58.7</v>
       </c>
       <c r="S9" s="1">
-        <v>98.46</v>
+        <v>98.95</v>
       </c>
       <c r="T9" s="1">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3236</v>
+      </c>
+      <c r="G10" s="1">
+        <v>115.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>110</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="O10" s="1">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="R10" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>99.78</v>
+      </c>
+      <c r="T10" s="1">
         <v>52.6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3077</v>
-      </c>
-      <c r="G10" s="1">
-        <v>112.1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>108.8</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="J10" s="1">
-        <v>55.2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="L10" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="M10" s="1">
-        <v>25.8</v>
-      </c>
-      <c r="N10" s="1">
-        <v>74.7</v>
-      </c>
-      <c r="O10" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>55.2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>58.7</v>
-      </c>
-      <c r="S10" s="1">
-        <v>98.95</v>
-      </c>
-      <c r="T10" s="1">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
       </c>
       <c r="E11" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>3236</v>
+        <v>3087</v>
       </c>
       <c r="G11" s="1">
-        <v>115.8</v>
+        <v>113.4</v>
       </c>
       <c r="H11" s="1">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="I11" s="1">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="J11" s="1">
-        <v>58.8</v>
+        <v>52.2</v>
       </c>
       <c r="K11" s="1">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="L11" s="1">
-        <v>17.600000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="M11" s="1">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="N11" s="1">
-        <v>73.8</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="O11" s="1">
-        <v>51</v>
+        <v>48.7</v>
       </c>
       <c r="P11" s="1">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="Q11" s="1">
-        <v>54.8</v>
+        <v>53.9</v>
       </c>
       <c r="R11" s="1">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="S11" s="1">
-        <v>99.78</v>
+        <v>103.62</v>
       </c>
       <c r="T11" s="1">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>64</v>
@@ -11448,119 +11473,119 @@
         <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>3087</v>
+        <v>3092</v>
       </c>
       <c r="G12" s="1">
-        <v>113.4</v>
+        <v>111</v>
       </c>
       <c r="H12" s="1">
-        <v>109.9</v>
+        <v>108.4</v>
       </c>
       <c r="I12" s="1">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="J12" s="1">
-        <v>52.2</v>
+        <v>54.3</v>
       </c>
       <c r="K12" s="1">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="L12" s="1">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="M12" s="1">
-        <v>26.1</v>
+        <v>23.9</v>
       </c>
       <c r="N12" s="1">
-        <v>71.400000000000006</v>
+        <v>72.8</v>
       </c>
       <c r="O12" s="1">
-        <v>48.7</v>
+        <v>49.2</v>
       </c>
       <c r="P12" s="1">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="Q12" s="1">
-        <v>53.9</v>
+        <v>53.4</v>
       </c>
       <c r="R12" s="1">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="S12" s="1">
-        <v>103.62</v>
+        <v>99.21</v>
       </c>
       <c r="T12" s="1">
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
-        <v>3092</v>
+        <v>3140</v>
       </c>
       <c r="G13" s="1">
-        <v>111</v>
+        <v>109.7</v>
       </c>
       <c r="H13" s="1">
-        <v>108.4</v>
+        <v>107.7</v>
       </c>
       <c r="I13" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
-        <v>54.3</v>
+        <v>61.5</v>
       </c>
       <c r="K13" s="1">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="L13" s="1">
-        <v>16.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="N13" s="1">
-        <v>72.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="O13" s="1">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="P13" s="1">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="Q13" s="1">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="R13" s="1">
-        <v>57.7</v>
+        <v>56.5</v>
       </c>
       <c r="S13" s="1">
-        <v>99.21</v>
+        <v>99.05</v>
       </c>
       <c r="T13" s="1">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>65</v>
@@ -11572,367 +11597,367 @@
         <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="G14" s="1">
         <v>109.7</v>
       </c>
       <c r="H14" s="1">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J14" s="1">
-        <v>61.5</v>
+        <v>63.4</v>
       </c>
       <c r="K14" s="1">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="L14" s="1">
-        <v>18.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>24.6</v>
+        <v>27.8</v>
       </c>
       <c r="N14" s="1">
-        <v>72.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="O14" s="1">
-        <v>49</v>
+        <v>51.5</v>
       </c>
       <c r="P14" s="1">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="Q14" s="1">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="R14" s="1">
-        <v>56.5</v>
+        <v>56.2</v>
       </c>
       <c r="S14" s="1">
-        <v>99.05</v>
+        <v>99.38</v>
       </c>
       <c r="T14" s="1">
-        <v>51.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>65</v>
       </c>
       <c r="D15" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1">
-        <v>3135</v>
+        <v>3125</v>
       </c>
       <c r="G15" s="1">
-        <v>109.7</v>
+        <v>108.9</v>
       </c>
       <c r="H15" s="1">
-        <v>107.6</v>
+        <v>109.9</v>
       </c>
       <c r="I15" s="1">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="1">
-        <v>63.4</v>
+        <v>63.2</v>
       </c>
       <c r="K15" s="1">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="L15" s="1">
-        <v>18.600000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="M15" s="1">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="N15" s="1">
-        <v>75.400000000000006</v>
+        <v>73</v>
       </c>
       <c r="O15" s="1">
-        <v>51.5</v>
+        <v>50.7</v>
       </c>
       <c r="P15" s="1">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="Q15" s="1">
         <v>53</v>
       </c>
       <c r="R15" s="1">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="S15" s="1">
-        <v>99.38</v>
+        <v>103.26</v>
       </c>
       <c r="T15" s="1">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1">
-        <v>3125</v>
+        <v>3112</v>
       </c>
       <c r="G16" s="1">
-        <v>108.9</v>
+        <v>107.8</v>
       </c>
       <c r="H16" s="1">
-        <v>109.9</v>
+        <v>108.3</v>
       </c>
       <c r="I16" s="1">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="J16" s="1">
-        <v>63.2</v>
+        <v>60.2</v>
       </c>
       <c r="K16" s="1">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="L16" s="1">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="M16" s="1">
-        <v>27.4</v>
+        <v>28.4</v>
       </c>
       <c r="N16" s="1">
-        <v>73</v>
+        <v>73.7</v>
       </c>
       <c r="O16" s="1">
-        <v>50.7</v>
+        <v>51.4</v>
       </c>
       <c r="P16" s="1">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="Q16" s="1">
-        <v>53</v>
+        <v>51.5</v>
       </c>
       <c r="R16" s="1">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="S16" s="1">
-        <v>103.26</v>
+        <v>101.51</v>
       </c>
       <c r="T16" s="1">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
       </c>
       <c r="E17" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1">
-        <v>3112</v>
+        <v>3125</v>
       </c>
       <c r="G17" s="1">
-        <v>107.8</v>
+        <v>107.5</v>
       </c>
       <c r="H17" s="1">
-        <v>108.3</v>
+        <v>108.7</v>
       </c>
       <c r="I17" s="1">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="J17" s="1">
-        <v>60.2</v>
+        <v>61.1</v>
       </c>
       <c r="K17" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="N17" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="O17" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="P17" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>54</v>
+      </c>
+      <c r="S17" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="T17" s="1">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3178</v>
+      </c>
+      <c r="G18" s="1">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1">
+        <v>113.6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="K18" s="1">
         <v>1.55</v>
       </c>
-      <c r="L17" s="1">
-        <v>17</v>
-      </c>
-      <c r="M17" s="1">
-        <v>28.4</v>
-      </c>
-      <c r="N17" s="1">
-        <v>73.7</v>
-      </c>
-      <c r="O17" s="1">
-        <v>51.4</v>
-      </c>
-      <c r="P17" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>51.5</v>
-      </c>
-      <c r="R17" s="1">
-        <v>55</v>
-      </c>
-      <c r="S17" s="1">
-        <v>101.51</v>
-      </c>
-      <c r="T17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="L18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1">
-        <v>65</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3125</v>
-      </c>
-      <c r="G18" s="1">
-        <v>107.5</v>
-      </c>
-      <c r="H18" s="1">
-        <v>108.7</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-1.2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>61.1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="L18" s="1">
-        <v>17.600000000000001</v>
-      </c>
       <c r="M18" s="1">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="N18" s="1">
-        <v>74.8</v>
+        <v>71</v>
       </c>
       <c r="O18" s="1">
-        <v>49.9</v>
+        <v>49.1</v>
       </c>
       <c r="P18" s="1">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="Q18" s="1">
-        <v>50.3</v>
+        <v>53</v>
       </c>
       <c r="R18" s="1">
-        <v>54</v>
+        <v>56.6</v>
       </c>
       <c r="S18" s="1">
-        <v>98.7</v>
+        <v>101.15</v>
       </c>
       <c r="T18" s="1">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>3178</v>
+        <v>3102</v>
       </c>
       <c r="G19" s="1">
-        <v>112</v>
+        <v>110.6</v>
       </c>
       <c r="H19" s="1">
-        <v>113.6</v>
+        <v>111.6</v>
       </c>
       <c r="I19" s="1">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="1">
-        <v>48.2</v>
+        <v>63.3</v>
       </c>
       <c r="K19" s="1">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="L19" s="1">
-        <v>15</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>26.3</v>
+        <v>28.8</v>
       </c>
       <c r="N19" s="1">
-        <v>71</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="O19" s="1">
-        <v>49.1</v>
+        <v>50.9</v>
       </c>
       <c r="P19" s="1">
-        <v>12.8</v>
+        <v>15.4</v>
       </c>
       <c r="Q19" s="1">
-        <v>53</v>
+        <v>53.8</v>
       </c>
       <c r="R19" s="1">
-        <v>56.6</v>
+        <v>56.7</v>
       </c>
       <c r="S19" s="1">
-        <v>101.15</v>
+        <v>103.96</v>
       </c>
       <c r="T19" s="1">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>64</v>
@@ -11947,846 +11972,762 @@
         <v>3102</v>
       </c>
       <c r="G20" s="1">
-        <v>110.6</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1">
-        <v>111.6</v>
+        <v>110.8</v>
       </c>
       <c r="I20" s="1">
-        <v>-1</v>
+        <v>-1.7</v>
       </c>
       <c r="J20" s="1">
-        <v>63.3</v>
+        <v>58</v>
       </c>
       <c r="K20" s="1">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="L20" s="1">
-        <v>18.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="M20" s="1">
-        <v>28.8</v>
+        <v>25.6</v>
       </c>
       <c r="N20" s="1">
-        <v>73.099999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="O20" s="1">
-        <v>50.9</v>
+        <v>49</v>
       </c>
       <c r="P20" s="1">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="Q20" s="1">
-        <v>53.8</v>
+        <v>53.1</v>
       </c>
       <c r="R20" s="1">
-        <v>56.7</v>
+        <v>56.3</v>
       </c>
       <c r="S20" s="1">
-        <v>103.96</v>
+        <v>99.08</v>
       </c>
       <c r="T20" s="1">
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1">
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>3102</v>
+        <v>3059</v>
       </c>
       <c r="G21" s="1">
-        <v>109</v>
+        <v>111.3</v>
       </c>
       <c r="H21" s="1">
-        <v>110.8</v>
+        <v>112.8</v>
       </c>
       <c r="I21" s="1">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="J21" s="1">
-        <v>58</v>
+        <v>58.4</v>
       </c>
       <c r="K21" s="1">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1">
-        <v>17.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>25.6</v>
+        <v>22.8</v>
       </c>
       <c r="N21" s="1">
-        <v>73.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="O21" s="1">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="P21" s="1">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="Q21" s="1">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="R21" s="1">
-        <v>56.3</v>
+        <v>56.9</v>
       </c>
       <c r="S21" s="1">
-        <v>99.08</v>
+        <v>100.6</v>
       </c>
       <c r="T21" s="1">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3135</v>
+      </c>
+      <c r="G22" s="1">
+        <v>110.2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>111.3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L22" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="O22" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="R22" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>101.76</v>
+      </c>
+      <c r="T22" s="1">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3059</v>
-      </c>
-      <c r="G22" s="1">
-        <v>111.3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>112.8</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="J22" s="1">
-        <v>58.4</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M22" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="N22" s="1">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="O22" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="P22" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>52.9</v>
-      </c>
-      <c r="R22" s="1">
-        <v>56.9</v>
-      </c>
-      <c r="S22" s="1">
-        <v>100.6</v>
-      </c>
-      <c r="T22" s="1">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C23" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>3135</v>
+        <v>3087</v>
       </c>
       <c r="G23" s="1">
-        <v>110.2</v>
+        <v>111.1</v>
       </c>
       <c r="H23" s="1">
-        <v>111.3</v>
+        <v>115</v>
       </c>
       <c r="I23" s="1">
-        <v>-1</v>
+        <v>-3.9</v>
       </c>
       <c r="J23" s="1">
-        <v>66.599999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="K23" s="1">
         <v>1.8</v>
       </c>
       <c r="L23" s="1">
-        <v>19.100000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="M23" s="1">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N23" s="1">
-        <v>72.8</v>
+        <v>70.8</v>
       </c>
       <c r="O23" s="1">
-        <v>49.4</v>
+        <v>47.6</v>
       </c>
       <c r="P23" s="1">
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
       <c r="Q23" s="1">
         <v>52.8</v>
       </c>
       <c r="R23" s="1">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="S23" s="1">
-        <v>101.76</v>
+        <v>103.52</v>
       </c>
       <c r="T23" s="1">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3150</v>
+      </c>
+      <c r="G24" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="H24" s="1">
+        <v>112.8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-7</v>
+      </c>
+      <c r="J24" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="L24" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="M24" s="1">
+        <v>28</v>
+      </c>
+      <c r="N24" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="O24" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="P24" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="1">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1">
-        <v>64</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="R24" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="S24" s="1">
+        <v>96.24</v>
+      </c>
+      <c r="T24" s="1">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="E24" s="1">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3087</v>
-      </c>
-      <c r="G24" s="1">
-        <v>111.1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>115</v>
-      </c>
-      <c r="I24" s="1">
-        <v>-3.9</v>
-      </c>
-      <c r="J24" s="1">
-        <v>60.4</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="L24" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="M24" s="1">
-        <v>26</v>
-      </c>
-      <c r="N24" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="O24" s="1">
-        <v>47.6</v>
-      </c>
-      <c r="P24" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>52.8</v>
-      </c>
-      <c r="R24" s="1">
-        <v>56.8</v>
-      </c>
-      <c r="S24" s="1">
-        <v>103.52</v>
-      </c>
-      <c r="T24" s="1">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>65</v>
       </c>
       <c r="D25" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
-        <v>3150</v>
+        <v>3135</v>
       </c>
       <c r="G25" s="1">
+        <v>105.8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>108.9</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-3.1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M25" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="N25" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="O25" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="R25" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="S25" s="1">
+        <v>100.46</v>
+      </c>
+      <c r="T25" s="1">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3193</v>
+      </c>
+      <c r="G26" s="1">
         <v>105.9</v>
       </c>
-      <c r="H25" s="1">
-        <v>112.8</v>
-      </c>
-      <c r="I25" s="1">
-        <v>-7</v>
-      </c>
-      <c r="J25" s="1">
-        <v>63.9</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="L25" s="1">
-        <v>17.7</v>
-      </c>
-      <c r="M25" s="1">
-        <v>28</v>
-      </c>
-      <c r="N25" s="1">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="O25" s="1">
-        <v>48.6</v>
-      </c>
-      <c r="P25" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>50.4</v>
-      </c>
-      <c r="R25" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="S25" s="1">
-        <v>96.24</v>
-      </c>
-      <c r="T25" s="1">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3135</v>
-      </c>
-      <c r="G26" s="1">
-        <v>105.8</v>
-      </c>
       <c r="H26" s="1">
-        <v>108.9</v>
+        <v>112.4</v>
       </c>
       <c r="I26" s="1">
-        <v>-3.1</v>
+        <v>-6.5</v>
       </c>
       <c r="J26" s="1">
-        <v>58.7</v>
+        <v>55.2</v>
       </c>
       <c r="K26" s="1">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="L26" s="1">
+        <v>16</v>
+      </c>
+      <c r="M26" s="1">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>99.11</v>
+      </c>
+      <c r="T26" s="1">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3256</v>
+      </c>
+      <c r="G27" s="1">
+        <v>107</v>
+      </c>
+      <c r="H27" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-7.4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="L27" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M27" s="1">
         <v>26.7</v>
       </c>
-      <c r="N26" s="1">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="O26" s="1">
-        <v>48.1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="N27" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="O27" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="P27" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="Q27" s="1">
         <v>51.5</v>
       </c>
-      <c r="R26" s="1">
-        <v>54.7</v>
-      </c>
-      <c r="S26" s="1">
-        <v>100.46</v>
-      </c>
-      <c r="T26" s="1">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1">
-        <v>21</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3193</v>
-      </c>
-      <c r="G27" s="1">
-        <v>105.9</v>
-      </c>
-      <c r="H27" s="1">
-        <v>112.4</v>
-      </c>
-      <c r="I27" s="1">
-        <v>-6.5</v>
-      </c>
-      <c r="J27" s="1">
-        <v>55.2</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="L27" s="1">
-        <v>16</v>
-      </c>
-      <c r="M27" s="1">
-        <v>30</v>
-      </c>
-      <c r="N27" s="1">
-        <v>74.2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>51.3</v>
-      </c>
-      <c r="P27" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>50.1</v>
-      </c>
       <c r="R27" s="1">
-        <v>53.1</v>
+        <v>55.4</v>
       </c>
       <c r="S27" s="1">
-        <v>99.11</v>
+        <v>103.28</v>
       </c>
       <c r="T27" s="1">
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
       </c>
       <c r="E28" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1">
-        <v>3256</v>
+        <v>3193</v>
       </c>
       <c r="G28" s="1">
-        <v>107</v>
+        <v>108.8</v>
       </c>
       <c r="H28" s="1">
-        <v>114.4</v>
+        <v>112.3</v>
       </c>
       <c r="I28" s="1">
-        <v>-7.4</v>
+        <v>-3.5</v>
       </c>
       <c r="J28" s="1">
-        <v>58.9</v>
+        <v>61.2</v>
       </c>
       <c r="K28" s="1">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="L28" s="1">
-        <v>16.899999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="M28" s="1">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="N28" s="1">
-        <v>70.8</v>
+        <v>71.7</v>
       </c>
       <c r="O28" s="1">
-        <v>48.4</v>
+        <v>49.3</v>
       </c>
       <c r="P28" s="1">
         <v>15.5</v>
       </c>
       <c r="Q28" s="1">
-        <v>51.5</v>
+        <v>52.9</v>
       </c>
       <c r="R28" s="1">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="S28" s="1">
-        <v>103.28</v>
+        <v>97.86</v>
       </c>
       <c r="T28" s="1">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1">
         <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>3193</v>
+        <v>3145</v>
       </c>
       <c r="G29" s="1">
-        <v>108.8</v>
+        <v>106.9</v>
       </c>
       <c r="H29" s="1">
-        <v>112.3</v>
+        <v>114.8</v>
       </c>
       <c r="I29" s="1">
-        <v>-3.5</v>
+        <v>-7.9</v>
       </c>
       <c r="J29" s="1">
-        <v>61.2</v>
+        <v>57.3</v>
       </c>
       <c r="K29" s="1">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="L29" s="1">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
       <c r="M29" s="1">
-        <v>27.7</v>
+        <v>29.6</v>
       </c>
       <c r="N29" s="1">
-        <v>71.7</v>
+        <v>73.8</v>
       </c>
       <c r="O29" s="1">
-        <v>49.3</v>
+        <v>51.2</v>
       </c>
       <c r="P29" s="1">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Q29" s="1">
-        <v>52.9</v>
+        <v>52.2</v>
       </c>
       <c r="R29" s="1">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="S29" s="1">
-        <v>97.86</v>
+        <v>99.17</v>
       </c>
       <c r="T29" s="1">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1">
         <v>19</v>
       </c>
       <c r="E30" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1">
+        <v>3112</v>
+      </c>
+      <c r="G30" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="H30" s="1">
+        <v>111.6</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>59</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L30" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="O30" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="P30" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="R30" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>103.94</v>
+      </c>
+      <c r="T30" s="1">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1">
         <v>3145</v>
       </c>
-      <c r="G30" s="1">
-        <v>106.9</v>
-      </c>
-      <c r="H30" s="1">
-        <v>114.8</v>
-      </c>
-      <c r="I30" s="1">
-        <v>-7.9</v>
-      </c>
-      <c r="J30" s="1">
-        <v>57.3</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L30" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="M30" s="1">
-        <v>29.6</v>
-      </c>
-      <c r="N30" s="1">
-        <v>73.8</v>
-      </c>
-      <c r="O30" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="P30" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="R30" s="1">
-        <v>55.3</v>
-      </c>
-      <c r="S30" s="1">
-        <v>99.17</v>
-      </c>
-      <c r="T30" s="1">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3112</v>
-      </c>
       <c r="G31" s="1">
-        <v>107.6</v>
+        <v>104.4</v>
       </c>
       <c r="H31" s="1">
-        <v>111.6</v>
+        <v>113</v>
       </c>
       <c r="I31" s="1">
-        <v>-4</v>
+        <v>-8.6</v>
       </c>
       <c r="J31" s="1">
-        <v>59</v>
+        <v>66.3</v>
       </c>
       <c r="K31" s="1">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="L31" s="1">
-        <v>16.7</v>
+        <v>18.2</v>
       </c>
       <c r="M31" s="1">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="N31" s="1">
-        <v>73.099999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="O31" s="1">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="P31" s="1">
         <v>14.6</v>
       </c>
       <c r="Q31" s="1">
-        <v>51.4</v>
+        <v>49.7</v>
       </c>
       <c r="R31" s="1">
-        <v>55.1</v>
+        <v>54</v>
       </c>
       <c r="S31" s="1">
-        <v>103.94</v>
+        <v>101.04</v>
       </c>
       <c r="T31" s="1">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="1">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1">
-        <v>50</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3145</v>
-      </c>
-      <c r="G32" s="1">
-        <v>104.4</v>
-      </c>
-      <c r="H32" s="1">
-        <v>113</v>
-      </c>
-      <c r="I32" s="1">
-        <v>-8.6</v>
-      </c>
-      <c r="J32" s="1">
-        <v>66.3</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="L32" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="M32" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="N32" s="1">
-        <v>72.2</v>
-      </c>
-      <c r="O32" s="1">
-        <v>48.1</v>
-      </c>
-      <c r="P32" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>49.7</v>
-      </c>
-      <c r="R32" s="1">
-        <v>54</v>
-      </c>
-      <c r="S32" s="1">
-        <v>101.04</v>
-      </c>
-      <c r="T32" s="1">
         <v>46.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{BBA2DF3A-24BC-254A-BDA2-062A0516058E}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://stats.nba.com/team/1610612747/traditional/?" xr:uid="{FA32EB94-5F25-8143-9F3C-7B58938A8D34}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{37E0D9D8-6C3F-764B-B535-2C06380C35E7}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://stats.nba.com/team/1610612746/traditional/?" xr:uid="{E5DBDBA5-910C-2948-8131-A8F1C6F7F981}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://stats.nba.com/team/1610612738/traditional/?" xr:uid="{53E57C73-C34D-A849-B1F0-E3425AC3D344}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://stats.nba.com/team/1610612743/traditional/?" xr:uid="{B892A407-7917-4B4F-BA51-69E604CFB509}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://stats.nba.com/team/1610612748/traditional/?" xr:uid="{B70F1AAA-93C7-3042-9A4D-887508A2D92F}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://stats.nba.com/team/1610612762/traditional/?" xr:uid="{0346278E-FE4F-9246-B537-6933CDCEA069}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://stats.nba.com/team/1610612742/traditional/?" xr:uid="{83B07E9D-151C-FE4C-ABEA-0B7964474A9D}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://stats.nba.com/team/1610612745/traditional/?" xr:uid="{9E7B4BD1-8EAB-E14C-AA43-9BAE9F4561AA}"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://stats.nba.com/team/1610612760/traditional/?" xr:uid="{CE34B28D-12EC-6143-AE4C-D3268B8F6E92}"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://stats.nba.com/team/1610612754/traditional/?" xr:uid="{0F5B5DB3-276E-484F-8B25-1BE7EEC356A6}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://stats.nba.com/team/1610612755/traditional/?" xr:uid="{2DF0E1E8-830A-4449-AC76-C1FED5F9400C}"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://stats.nba.com/team/1610612763/traditional/?" xr:uid="{5CC41724-6368-E84D-BFE4-A1CCC5CA098E}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://stats.nba.com/team/1610612751/traditional/?" xr:uid="{3321AFAD-6DA4-564D-AFB5-0C7FB401BC0D}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://stats.nba.com/team/1610612753/traditional/?" xr:uid="{055B5A6B-547B-3646-A847-303B48130F7C}"/>
-    <hyperlink ref="B19" r:id="rId17" display="https://stats.nba.com/team/1610612757/traditional/?" xr:uid="{CFF4B1F8-0EC1-AF40-BFFB-FC34B8F58987}"/>
-    <hyperlink ref="B20" r:id="rId18" display="https://stats.nba.com/team/1610612740/traditional/?" xr:uid="{4C5AB518-2AA6-6745-BF6E-DA0F7EFD059F}"/>
-    <hyperlink ref="B21" r:id="rId19" display="https://stats.nba.com/team/1610612758/traditional/?" xr:uid="{487D33B9-1A7B-D14F-874A-3698A29610E7}"/>
-    <hyperlink ref="B22" r:id="rId20" display="https://stats.nba.com/team/1610612759/traditional/?" xr:uid="{D4294673-A886-0640-8F72-0A67056118A5}"/>
-    <hyperlink ref="B23" r:id="rId21" display="https://stats.nba.com/team/1610612756/traditional/?" xr:uid="{4F9388AC-D679-E34D-A3D1-54250A94CA46}"/>
-    <hyperlink ref="B24" r:id="rId22" display="https://stats.nba.com/team/1610612764/traditional/?" xr:uid="{5B7EB28F-96E6-7C41-903C-F8663A9C247E}"/>
-    <hyperlink ref="B25" r:id="rId23" display="https://stats.nba.com/team/1610612766/traditional/?" xr:uid="{307A09B7-BD6E-394F-B80D-FE54BA0249DC}"/>
-    <hyperlink ref="B26" r:id="rId24" display="https://stats.nba.com/team/1610612741/traditional/?" xr:uid="{FC07FDCF-1B3A-3544-BD53-469B885580FD}"/>
-    <hyperlink ref="B27" r:id="rId25" display="https://stats.nba.com/team/1610612752/traditional/?" xr:uid="{A4793E54-E81B-334B-A45B-9EB733DAFFF1}"/>
-    <hyperlink ref="B28" r:id="rId26" display="https://stats.nba.com/team/1610612737/traditional/?" xr:uid="{AE66D7DD-1442-C64F-A983-65EF074BE6CC}"/>
-    <hyperlink ref="B29" r:id="rId27" display="https://stats.nba.com/team/1610612765/traditional/?" xr:uid="{C4BCD496-7CFB-AC4A-B3B3-E2EC604C2923}"/>
-    <hyperlink ref="B30" r:id="rId28" display="https://stats.nba.com/team/1610612739/traditional/?" xr:uid="{24F9C09F-99B5-B145-B7D2-7A64449F4180}"/>
-    <hyperlink ref="B31" r:id="rId29" display="https://stats.nba.com/team/1610612750/traditional/?" xr:uid="{6FBA1A3A-DF17-0449-9FD4-E471D6CA0497}"/>
-    <hyperlink ref="B32" r:id="rId30" display="https://stats.nba.com/team/1610612744/traditional/?" xr:uid="{12BB6D7D-484A-1A42-AF92-110F624735A3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{BBA2DF3A-24BC-254A-BDA2-062A0516058E}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://stats.nba.com/team/1610612747/traditional/?" xr:uid="{FA32EB94-5F25-8143-9F3C-7B58938A8D34}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{37E0D9D8-6C3F-764B-B535-2C06380C35E7}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://stats.nba.com/team/1610612746/traditional/?" xr:uid="{E5DBDBA5-910C-2948-8131-A8F1C6F7F981}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://stats.nba.com/team/1610612738/traditional/?" xr:uid="{53E57C73-C34D-A849-B1F0-E3425AC3D344}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://stats.nba.com/team/1610612743/traditional/?" xr:uid="{B892A407-7917-4B4F-BA51-69E604CFB509}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://stats.nba.com/team/1610612748/traditional/?" xr:uid="{B70F1AAA-93C7-3042-9A4D-887508A2D92F}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://stats.nba.com/team/1610612762/traditional/?" xr:uid="{0346278E-FE4F-9246-B537-6933CDCEA069}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://stats.nba.com/team/1610612742/traditional/?" xr:uid="{83B07E9D-151C-FE4C-ABEA-0B7964474A9D}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://stats.nba.com/team/1610612745/traditional/?" xr:uid="{9E7B4BD1-8EAB-E14C-AA43-9BAE9F4561AA}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://stats.nba.com/team/1610612760/traditional/?" xr:uid="{CE34B28D-12EC-6143-AE4C-D3268B8F6E92}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://stats.nba.com/team/1610612754/traditional/?" xr:uid="{0F5B5DB3-276E-484F-8B25-1BE7EEC356A6}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://stats.nba.com/team/1610612755/traditional/?" xr:uid="{2DF0E1E8-830A-4449-AC76-C1FED5F9400C}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://stats.nba.com/team/1610612763/traditional/?" xr:uid="{5CC41724-6368-E84D-BFE4-A1CCC5CA098E}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://stats.nba.com/team/1610612751/traditional/?" xr:uid="{3321AFAD-6DA4-564D-AFB5-0C7FB401BC0D}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://stats.nba.com/team/1610612753/traditional/?" xr:uid="{055B5A6B-547B-3646-A847-303B48130F7C}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://stats.nba.com/team/1610612757/traditional/?" xr:uid="{CFF4B1F8-0EC1-AF40-BFFB-FC34B8F58987}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://stats.nba.com/team/1610612740/traditional/?" xr:uid="{4C5AB518-2AA6-6745-BF6E-DA0F7EFD059F}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://stats.nba.com/team/1610612758/traditional/?" xr:uid="{487D33B9-1A7B-D14F-874A-3698A29610E7}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://stats.nba.com/team/1610612759/traditional/?" xr:uid="{D4294673-A886-0640-8F72-0A67056118A5}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://stats.nba.com/team/1610612756/traditional/?" xr:uid="{4F9388AC-D679-E34D-A3D1-54250A94CA46}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://stats.nba.com/team/1610612764/traditional/?" xr:uid="{5B7EB28F-96E6-7C41-903C-F8663A9C247E}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://stats.nba.com/team/1610612766/traditional/?" xr:uid="{307A09B7-BD6E-394F-B80D-FE54BA0249DC}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://stats.nba.com/team/1610612741/traditional/?" xr:uid="{FC07FDCF-1B3A-3544-BD53-469B885580FD}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://stats.nba.com/team/1610612752/traditional/?" xr:uid="{A4793E54-E81B-334B-A45B-9EB733DAFFF1}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://stats.nba.com/team/1610612737/traditional/?" xr:uid="{AE66D7DD-1442-C64F-A983-65EF074BE6CC}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://stats.nba.com/team/1610612765/traditional/?" xr:uid="{C4BCD496-7CFB-AC4A-B3B3-E2EC604C2923}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://stats.nba.com/team/1610612739/traditional/?" xr:uid="{24F9C09F-99B5-B145-B7D2-7A64449F4180}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://stats.nba.com/team/1610612750/traditional/?" xr:uid="{6FBA1A3A-DF17-0449-9FD4-E471D6CA0497}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://stats.nba.com/team/1610612744/traditional/?" xr:uid="{12BB6D7D-484A-1A42-AF92-110F624735A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12794,724 +12735,761 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A1F8A0-DC42-EC45-8643-1DB5E56DDEAC}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:T18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1162</v>
+      </c>
+      <c r="G2" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="L2" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="O2" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="T2" s="1">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>1162</v>
+        <v>1066</v>
       </c>
       <c r="G3" s="1">
-        <v>109.8</v>
+        <v>114.6</v>
       </c>
       <c r="H3" s="1">
-        <v>104.2</v>
+        <v>111.5</v>
       </c>
       <c r="I3" s="1">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="J3" s="1">
-        <v>59.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="K3" s="1">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L3" s="1">
-        <v>17.2</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
-        <v>23.9</v>
+        <v>30.1</v>
       </c>
       <c r="N3" s="1">
-        <v>71.900000000000006</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="O3" s="1">
-        <v>48.3</v>
+        <v>51.3</v>
       </c>
       <c r="P3" s="1">
-        <v>12.4</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="1">
-        <v>51.5</v>
+        <v>54.8</v>
       </c>
       <c r="R3" s="1">
-        <v>56.1</v>
+        <v>58.9</v>
       </c>
       <c r="S3" s="1">
-        <v>96.25</v>
+        <v>98.57</v>
       </c>
       <c r="T3" s="1">
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>730</v>
+      </c>
+      <c r="G4" s="1">
+        <v>110.7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J4" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="M4" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="O4" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="R4" s="1">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="S4" s="1">
+        <v>100.57</v>
+      </c>
+      <c r="T4" s="1">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>793</v>
+      </c>
+      <c r="G5" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>110.6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="O5" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>97.15</v>
+      </c>
+      <c r="T5" s="1">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1066</v>
-      </c>
-      <c r="G4" s="1">
-        <v>114.6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="O4" s="1">
-        <v>51.3</v>
-      </c>
-      <c r="P4" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="R4" s="1">
-        <v>58.9</v>
-      </c>
-      <c r="S4" s="1">
-        <v>98.57</v>
-      </c>
-      <c r="T4" s="1">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>730</v>
-      </c>
-      <c r="G5" s="1">
-        <v>110.7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>101.9</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J5" s="1">
-        <v>62.8</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="L5" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="M5" s="1">
-        <v>25.9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="O5" s="1">
-        <v>52.6</v>
-      </c>
-      <c r="P5" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>52.3</v>
-      </c>
-      <c r="R5" s="1">
-        <v>56</v>
-      </c>
-      <c r="S5" s="1">
-        <v>100.57</v>
-      </c>
-      <c r="T5" s="1">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>793</v>
+        <v>692</v>
       </c>
       <c r="G6" s="1">
-        <v>109.5</v>
+        <v>113.3</v>
       </c>
       <c r="H6" s="1">
-        <v>110.6</v>
+        <v>111.1</v>
       </c>
       <c r="I6" s="1">
-        <v>-1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>50.1</v>
+        <v>60.1</v>
       </c>
       <c r="K6" s="1">
-        <v>1.53</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>14.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="N6" s="1">
-        <v>69.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="O6" s="1">
-        <v>49.1</v>
+        <v>50.5</v>
       </c>
       <c r="P6" s="1">
-        <v>12.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>50.1</v>
+        <v>49.6</v>
       </c>
       <c r="R6" s="1">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="S6" s="1">
-        <v>97.15</v>
+        <v>93.68</v>
       </c>
       <c r="T6" s="1">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
       <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>576</v>
+      </c>
+      <c r="G7" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>106</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="N7" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>55.9</v>
+      </c>
+      <c r="S7" s="1">
+        <v>99.63</v>
+      </c>
+      <c r="T7" s="1">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
-        <v>692</v>
-      </c>
-      <c r="G7" s="1">
-        <v>113.3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>111.1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <v>60.1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>31.1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>70.3</v>
-      </c>
-      <c r="O7" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>49.6</v>
-      </c>
-      <c r="R7" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="S7" s="1">
-        <v>93.68</v>
-      </c>
-      <c r="T7" s="1">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="G8" s="1">
-        <v>109.1</v>
+        <v>110.5</v>
       </c>
       <c r="H8" s="1">
-        <v>106</v>
+        <v>107.4</v>
       </c>
       <c r="I8" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>61.9</v>
+        <v>49.1</v>
       </c>
       <c r="K8" s="1">
-        <v>1.48</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L8" s="1">
-        <v>17.5</v>
+        <v>14.1</v>
       </c>
       <c r="M8" s="1">
-        <v>31.9</v>
+        <v>28.7</v>
       </c>
       <c r="N8" s="1">
-        <v>75.2</v>
+        <v>68.7</v>
       </c>
       <c r="O8" s="1">
-        <v>54.1</v>
+        <v>49.1</v>
       </c>
       <c r="P8" s="1">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q8" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="R8" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>97.26</v>
+      </c>
+      <c r="T8" s="1">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>432</v>
+      </c>
+      <c r="G9" s="1">
+        <v>101.4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>103</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="O9" s="1">
         <v>51.4</v>
       </c>
-      <c r="R8" s="1">
-        <v>55.9</v>
-      </c>
-      <c r="S8" s="1">
-        <v>99.63</v>
-      </c>
-      <c r="T8" s="1">
-        <v>53.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="P9" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="S9" s="1">
+        <v>100.61</v>
+      </c>
+      <c r="T9" s="1">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>533</v>
-      </c>
-      <c r="G9" s="1">
-        <v>110.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>107.4</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="D10" s="1">
         <v>3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L9" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>28.7</v>
-      </c>
-      <c r="N9" s="1">
-        <v>68.7</v>
-      </c>
-      <c r="O9" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>53.7</v>
-      </c>
-      <c r="R9" s="1">
-        <v>57.4</v>
-      </c>
-      <c r="S9" s="1">
-        <v>97.26</v>
-      </c>
-      <c r="T9" s="1">
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="G10" s="1">
-        <v>101.4</v>
+        <v>110.7</v>
       </c>
       <c r="H10" s="1">
-        <v>103</v>
+        <v>113.1</v>
       </c>
       <c r="I10" s="1">
-        <v>-1.5</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>60.1</v>
+        <v>53.6</v>
       </c>
       <c r="K10" s="1">
-        <v>1.45</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L10" s="1">
-        <v>16.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>22.9</v>
+        <v>26.4</v>
       </c>
       <c r="N10" s="1">
-        <v>78.3</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="O10" s="1">
-        <v>51.4</v>
+        <v>49.9</v>
       </c>
       <c r="P10" s="1">
-        <v>14.7</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="1">
-        <v>49.1</v>
+        <v>50.3</v>
       </c>
       <c r="R10" s="1">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="S10" s="1">
-        <v>100.61</v>
+        <v>93.14</v>
       </c>
       <c r="T10" s="1">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="G11" s="1">
-        <v>110.7</v>
+        <v>111.5</v>
       </c>
       <c r="H11" s="1">
-        <v>113.1</v>
+        <v>120.5</v>
       </c>
       <c r="I11" s="1">
-        <v>-2.2999999999999998</v>
+        <v>-9</v>
       </c>
       <c r="J11" s="1">
-        <v>53.6</v>
+        <v>63.6</v>
       </c>
       <c r="K11" s="1">
-        <v>2.5099999999999998</v>
+        <v>1.69</v>
       </c>
       <c r="L11" s="1">
-        <v>16.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="M11" s="1">
-        <v>26.4</v>
+        <v>29.3</v>
       </c>
       <c r="N11" s="1">
-        <v>72.599999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="O11" s="1">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="P11" s="1">
-        <v>9</v>
+        <v>14.6</v>
       </c>
       <c r="Q11" s="1">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="R11" s="1">
-        <v>54.2</v>
+        <v>56.3</v>
       </c>
       <c r="S11" s="1">
-        <v>93.14</v>
+        <v>103.08</v>
       </c>
       <c r="T11" s="1">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="G12" s="1">
-        <v>111.5</v>
+        <v>105.7</v>
       </c>
       <c r="H12" s="1">
-        <v>120.5</v>
+        <v>115.9</v>
       </c>
       <c r="I12" s="1">
-        <v>-9</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>63.6</v>
+        <v>50</v>
       </c>
       <c r="K12" s="1">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="L12" s="1">
-        <v>17.7</v>
+        <v>13.8</v>
       </c>
       <c r="M12" s="1">
-        <v>29.3</v>
+        <v>25.8</v>
       </c>
       <c r="N12" s="1">
-        <v>71.400000000000006</v>
+        <v>64.3</v>
       </c>
       <c r="O12" s="1">
-        <v>49</v>
+        <v>44.1</v>
       </c>
       <c r="P12" s="1">
-        <v>14.6</v>
+        <v>13.5</v>
       </c>
       <c r="Q12" s="1">
-        <v>51.1</v>
+        <v>48</v>
       </c>
       <c r="R12" s="1">
-        <v>56.3</v>
+        <v>53.4</v>
       </c>
       <c r="S12" s="1">
-        <v>103.08</v>
+        <v>105.5</v>
       </c>
       <c r="T12" s="1">
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -13526,54 +13504,54 @@
         <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>105.7</v>
+        <v>104.4</v>
       </c>
       <c r="H13" s="1">
-        <v>115.9</v>
+        <v>109.9</v>
       </c>
       <c r="I13" s="1">
-        <v>-10.199999999999999</v>
+        <v>-5.5</v>
       </c>
       <c r="J13" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="O13" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="Q13" s="1">
         <v>50</v>
       </c>
-      <c r="K13" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="L13" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="M13" s="1">
-        <v>25.8</v>
-      </c>
-      <c r="N13" s="1">
-        <v>64.3</v>
-      </c>
-      <c r="O13" s="1">
-        <v>44.1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>48</v>
-      </c>
       <c r="R13" s="1">
-        <v>53.4</v>
+        <v>54.1</v>
       </c>
       <c r="S13" s="1">
-        <v>105.5</v>
+        <v>100.9</v>
       </c>
       <c r="T13" s="1">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -13588,54 +13566,54 @@
         <v>240</v>
       </c>
       <c r="G14" s="1">
-        <v>104.4</v>
+        <v>95.8</v>
       </c>
       <c r="H14" s="1">
-        <v>109.9</v>
+        <v>111.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-5.5</v>
+        <v>-15.7</v>
       </c>
       <c r="J14" s="1">
-        <v>59.8</v>
+        <v>59</v>
       </c>
       <c r="K14" s="1">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="L14" s="1">
-        <v>16.600000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="M14" s="1">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="N14" s="1">
-        <v>70.099999999999994</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="O14" s="1">
-        <v>48.2</v>
+        <v>50.5</v>
       </c>
       <c r="P14" s="1">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="Q14" s="1">
-        <v>50</v>
+        <v>45.1</v>
       </c>
       <c r="R14" s="1">
-        <v>54.1</v>
+        <v>49.6</v>
       </c>
       <c r="S14" s="1">
-        <v>100.9</v>
+        <v>95.7</v>
       </c>
       <c r="T14" s="1">
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -13650,116 +13628,116 @@
         <v>240</v>
       </c>
       <c r="G15" s="1">
-        <v>95.8</v>
+        <v>99.2</v>
       </c>
       <c r="H15" s="1">
-        <v>111.5</v>
+        <v>108.5</v>
       </c>
       <c r="I15" s="1">
-        <v>-15.7</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="J15" s="1">
-        <v>59</v>
+        <v>66.5</v>
       </c>
       <c r="K15" s="1">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="L15" s="1">
-        <v>14.7</v>
+        <v>16.7</v>
       </c>
       <c r="M15" s="1">
-        <v>26</v>
+        <v>30.5</v>
       </c>
       <c r="N15" s="1">
-        <v>79.599999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="O15" s="1">
-        <v>50.5</v>
+        <v>51.6</v>
       </c>
       <c r="P15" s="1">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="Q15" s="1">
-        <v>45.1</v>
+        <v>45.5</v>
       </c>
       <c r="R15" s="1">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="S15" s="1">
-        <v>95.7</v>
+        <v>98.6</v>
       </c>
       <c r="T15" s="1">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="1">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1">
-        <v>99.2</v>
+        <v>96.8</v>
       </c>
       <c r="H16" s="1">
-        <v>108.5</v>
+        <v>120.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-9.3000000000000007</v>
+        <v>-23.8</v>
       </c>
       <c r="J16" s="1">
-        <v>66.5</v>
+        <v>61.3</v>
       </c>
       <c r="K16" s="1">
-        <v>1.51</v>
+        <v>2.19</v>
       </c>
       <c r="L16" s="1">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="M16" s="1">
-        <v>30.5</v>
+        <v>24.8</v>
       </c>
       <c r="N16" s="1">
-        <v>74.2</v>
+        <v>72.7</v>
       </c>
       <c r="O16" s="1">
-        <v>51.6</v>
+        <v>45.2</v>
       </c>
       <c r="P16" s="1">
-        <v>15.4</v>
+        <v>10.4</v>
       </c>
       <c r="Q16" s="1">
-        <v>45.5</v>
+        <v>44.4</v>
       </c>
       <c r="R16" s="1">
-        <v>50.1</v>
+        <v>47.1</v>
       </c>
       <c r="S16" s="1">
-        <v>98.6</v>
+        <v>101.13</v>
       </c>
       <c r="T16" s="1">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -13774,148 +13752,66 @@
         <v>192</v>
       </c>
       <c r="G17" s="1">
-        <v>96.8</v>
+        <v>95.8</v>
       </c>
       <c r="H17" s="1">
-        <v>120.5</v>
+        <v>103.9</v>
       </c>
       <c r="I17" s="1">
-        <v>-23.8</v>
+        <v>-8.1</v>
       </c>
       <c r="J17" s="1">
-        <v>61.3</v>
+        <v>61.9</v>
       </c>
       <c r="K17" s="1">
-        <v>2.19</v>
+        <v>1.73</v>
       </c>
       <c r="L17" s="1">
-        <v>16.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>24.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>72.7</v>
+        <v>73.7</v>
       </c>
       <c r="O17" s="1">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="P17" s="1">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="Q17" s="1">
-        <v>44.4</v>
+        <v>46.1</v>
       </c>
       <c r="R17" s="1">
-        <v>47.1</v>
+        <v>49.6</v>
       </c>
       <c r="S17" s="1">
-        <v>101.13</v>
+        <v>95.63</v>
       </c>
       <c r="T17" s="1">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>192</v>
-      </c>
-      <c r="G18" s="1">
-        <v>95.8</v>
-      </c>
-      <c r="H18" s="1">
-        <v>103.9</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-8.1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>61.9</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.73</v>
-      </c>
-      <c r="L18" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M18" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="N18" s="1">
-        <v>73.7</v>
-      </c>
-      <c r="O18" s="1">
-        <v>45.1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>46.1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>49.6</v>
-      </c>
-      <c r="S18" s="1">
-        <v>95.63</v>
-      </c>
-      <c r="T18" s="1">
         <v>45.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{0ECE5BCA-3FB5-F24C-8C19-20DD6A60F1CD}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://stats.nba.com/team/1610612744/traditional/?" xr:uid="{8303B7EC-9DBF-F348-B410-5DB2B4208E61}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{B623EFDB-D0F0-4445-89A5-7CAB2956FB9C}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://stats.nba.com/team/1610612757/traditional/?" xr:uid="{0F35C729-278F-B144-99B0-FFD474494D32}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://stats.nba.com/team/1610612743/traditional/?" xr:uid="{7DC127C4-EAAF-3147-B719-7335F95AC1F7}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://stats.nba.com/team/1610612755/traditional/?" xr:uid="{6C58CF80-B114-CC47-90AC-5107211A0FD9}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://stats.nba.com/team/1610612745/traditional/?" xr:uid="{72FF8219-C5B1-0647-9D4E-64374406BAA3}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://stats.nba.com/team/1610612738/traditional/?" xr:uid="{8FDB63EE-CD9F-CB44-8D18-684EB3899B98}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://stats.nba.com/team/1610612759/traditional/?" xr:uid="{D34AA8A6-B434-4B4C-8ED8-F1F5D672FD39}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://stats.nba.com/team/1610612746/traditional/?" xr:uid="{6C54573D-30DF-5647-9444-9C2284A60185}"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://stats.nba.com/team/1610612751/traditional/?" xr:uid="{167E2CD7-75C4-CD44-AB8C-B4A2F69B902D}"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://stats.nba.com/team/1610612760/traditional/?" xr:uid="{D17C0EAA-E0D2-D448-8AB0-50B2D95E013C}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://stats.nba.com/team/1610612753/traditional/?" xr:uid="{C96694B2-3C3C-4146-A5F4-E7D252750808}"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://stats.nba.com/team/1610612762/traditional/?" xr:uid="{9EF4D87C-BBE1-A949-B288-3E2D80D67CAB}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://stats.nba.com/team/1610612765/traditional/?" xr:uid="{0ADE76E1-ACB2-D142-817B-3D394FFA8D45}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://stats.nba.com/team/1610612754/traditional/?" xr:uid="{C7727266-016F-9B4E-9D6F-A97607F3E38B}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{0ECE5BCA-3FB5-F24C-8C19-20DD6A60F1CD}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://stats.nba.com/team/1610612744/traditional/?" xr:uid="{8303B7EC-9DBF-F348-B410-5DB2B4208E61}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{B623EFDB-D0F0-4445-89A5-7CAB2956FB9C}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://stats.nba.com/team/1610612757/traditional/?" xr:uid="{0F35C729-278F-B144-99B0-FFD474494D32}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://stats.nba.com/team/1610612743/traditional/?" xr:uid="{7DC127C4-EAAF-3147-B719-7335F95AC1F7}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://stats.nba.com/team/1610612755/traditional/?" xr:uid="{6C58CF80-B114-CC47-90AC-5107211A0FD9}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://stats.nba.com/team/1610612745/traditional/?" xr:uid="{72FF8219-C5B1-0647-9D4E-64374406BAA3}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://stats.nba.com/team/1610612738/traditional/?" xr:uid="{8FDB63EE-CD9F-CB44-8D18-684EB3899B98}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://stats.nba.com/team/1610612759/traditional/?" xr:uid="{D34AA8A6-B434-4B4C-8ED8-F1F5D672FD39}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://stats.nba.com/team/1610612746/traditional/?" xr:uid="{6C54573D-30DF-5647-9444-9C2284A60185}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://stats.nba.com/team/1610612751/traditional/?" xr:uid="{167E2CD7-75C4-CD44-AB8C-B4A2F69B902D}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://stats.nba.com/team/1610612760/traditional/?" xr:uid="{D17C0EAA-E0D2-D448-8AB0-50B2D95E013C}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://stats.nba.com/team/1610612753/traditional/?" xr:uid="{C96694B2-3C3C-4146-A5F4-E7D252750808}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://stats.nba.com/team/1610612762/traditional/?" xr:uid="{9EF4D87C-BBE1-A949-B288-3E2D80D67CAB}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://stats.nba.com/team/1610612765/traditional/?" xr:uid="{0ADE76E1-ACB2-D142-817B-3D394FFA8D45}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://stats.nba.com/team/1610612754/traditional/?" xr:uid="{C7727266-016F-9B4E-9D6F-A97607F3E38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13923,600 +13819,638 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B775558F-9E15-FF4C-B701-07AF3125B920}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>864</v>
+      </c>
+      <c r="G2" s="1">
+        <v>116.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>108.8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="L2" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>76</v>
+      </c>
+      <c r="O2" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="S2" s="1">
+        <v>98.28</v>
+      </c>
+      <c r="T2" s="1">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>874</v>
+      </c>
+      <c r="G3" s="1">
+        <v>113.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>110.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O3" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="P3" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>97.15</v>
+      </c>
+      <c r="T3" s="1">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>831</v>
+      </c>
+      <c r="G4" s="1">
+        <v>111.6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>106.3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="R4" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>96.32</v>
+      </c>
+      <c r="T4" s="1">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
-        <v>864</v>
-      </c>
-      <c r="G3" s="1">
-        <v>116.1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>108.8</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>62.9</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="L3" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="M3" s="1">
-        <v>30.3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>76</v>
-      </c>
-      <c r="O3" s="1">
-        <v>53.4</v>
-      </c>
-      <c r="P3" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>56.4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>59.8</v>
-      </c>
-      <c r="S3" s="1">
-        <v>98.28</v>
-      </c>
-      <c r="T3" s="1">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>874</v>
-      </c>
-      <c r="G4" s="1">
-        <v>113.5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>110.5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="L4" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="M4" s="1">
-        <v>24.4</v>
-      </c>
-      <c r="N4" s="1">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="O4" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="P4" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>54.1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>59.1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>97.15</v>
-      </c>
-      <c r="T4" s="1">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>7</v>
-      </c>
       <c r="F5" s="1">
-        <v>831</v>
+        <v>917</v>
       </c>
       <c r="G5" s="1">
-        <v>111.6</v>
+        <v>112.6</v>
       </c>
       <c r="H5" s="1">
-        <v>106.3</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1">
-        <v>5.3</v>
+        <v>-2.4</v>
       </c>
       <c r="J5" s="1">
-        <v>58.7</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1">
         <v>1.62</v>
       </c>
       <c r="L5" s="1">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="M5" s="1">
-        <v>26.1</v>
+        <v>27.9</v>
       </c>
       <c r="N5" s="1">
-        <v>74.7</v>
+        <v>72.2</v>
       </c>
       <c r="O5" s="1">
-        <v>51.4</v>
+        <v>50.2</v>
       </c>
       <c r="P5" s="1">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="Q5" s="1">
-        <v>52.7</v>
+        <v>54.5</v>
       </c>
       <c r="R5" s="1">
-        <v>57.2</v>
+        <v>58.4</v>
       </c>
       <c r="S5" s="1">
-        <v>96.32</v>
+        <v>94.87</v>
       </c>
       <c r="T5" s="1">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>917</v>
+        <v>629</v>
       </c>
       <c r="G6" s="1">
-        <v>112.6</v>
+        <v>114.4</v>
       </c>
       <c r="H6" s="1">
-        <v>115</v>
+        <v>110.1</v>
       </c>
       <c r="I6" s="1">
-        <v>-2.4</v>
+        <v>4.2</v>
       </c>
       <c r="J6" s="1">
-        <v>58</v>
+        <v>51.7</v>
       </c>
       <c r="K6" s="1">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="L6" s="1">
-        <v>17.3</v>
+        <v>16</v>
       </c>
       <c r="M6" s="1">
-        <v>27.9</v>
+        <v>25.3</v>
       </c>
       <c r="N6" s="1">
-        <v>72.2</v>
+        <v>76.2</v>
       </c>
       <c r="O6" s="1">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="P6" s="1">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="1">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="R6" s="1">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="S6" s="1">
-        <v>94.87</v>
+        <v>98.9</v>
       </c>
       <c r="T6" s="1">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>629</v>
+        <v>538</v>
       </c>
       <c r="G7" s="1">
-        <v>114.4</v>
+        <v>108.7</v>
       </c>
       <c r="H7" s="1">
-        <v>110.1</v>
+        <v>104.9</v>
       </c>
       <c r="I7" s="1">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J7" s="1">
-        <v>51.7</v>
+        <v>63.5</v>
       </c>
       <c r="K7" s="1">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="L7" s="1">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="M7" s="1">
-        <v>25.3</v>
+        <v>22.6</v>
       </c>
       <c r="N7" s="1">
-        <v>76.2</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="O7" s="1">
-        <v>50.5</v>
+        <v>49.2</v>
       </c>
       <c r="P7" s="1">
         <v>13</v>
       </c>
       <c r="Q7" s="1">
-        <v>54.4</v>
+        <v>52.5</v>
       </c>
       <c r="R7" s="1">
-        <v>58.5</v>
+        <v>55.9</v>
       </c>
       <c r="S7" s="1">
-        <v>98.9</v>
+        <v>98.63</v>
       </c>
       <c r="T7" s="1">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
       <c r="F8" s="1">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="G8" s="1">
-        <v>108.7</v>
+        <v>107.7</v>
       </c>
       <c r="H8" s="1">
-        <v>104.9</v>
+        <v>106.8</v>
       </c>
       <c r="I8" s="1">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="1">
-        <v>63.5</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="L8" s="1">
-        <v>18.2</v>
+        <v>16.3</v>
       </c>
       <c r="M8" s="1">
-        <v>22.6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>75.900000000000006</v>
+        <v>73.3</v>
       </c>
       <c r="O8" s="1">
-        <v>49.2</v>
+        <v>45.2</v>
       </c>
       <c r="P8" s="1">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="Q8" s="1">
-        <v>52.5</v>
+        <v>53.5</v>
       </c>
       <c r="R8" s="1">
-        <v>55.9</v>
+        <v>56.9</v>
       </c>
       <c r="S8" s="1">
-        <v>98.63</v>
+        <v>99.18</v>
       </c>
       <c r="T8" s="1">
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>485</v>
+      </c>
+      <c r="G9" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>107.3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="O9" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="R9" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="S9" s="1">
+        <v>101.05</v>
+      </c>
+      <c r="T9" s="1">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
-        <v>581</v>
-      </c>
-      <c r="G9" s="1">
-        <v>107.7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>106.8</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J9" s="1">
-        <v>57</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.59</v>
-      </c>
-      <c r="L9" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N9" s="1">
-        <v>73.3</v>
-      </c>
-      <c r="O9" s="1">
-        <v>45.2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>53.5</v>
-      </c>
-      <c r="R9" s="1">
-        <v>56.9</v>
-      </c>
-      <c r="S9" s="1">
-        <v>99.18</v>
-      </c>
-      <c r="T9" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="G10" s="1">
-        <v>109.1</v>
+        <v>101.7</v>
       </c>
       <c r="H10" s="1">
-        <v>107.3</v>
+        <v>108.3</v>
       </c>
       <c r="I10" s="1">
-        <v>1.8</v>
+        <v>-6.6</v>
       </c>
       <c r="J10" s="1">
-        <v>60.6</v>
+        <v>48.6</v>
       </c>
       <c r="K10" s="1">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="L10" s="1">
-        <v>17.7</v>
+        <v>13.5</v>
       </c>
       <c r="M10" s="1">
-        <v>23</v>
+        <v>25.3</v>
       </c>
       <c r="N10" s="1">
-        <v>79.099999999999994</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="O10" s="1">
-        <v>50.6</v>
+        <v>53.8</v>
       </c>
       <c r="P10" s="1">
-        <v>14.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>53.7</v>
+        <v>50</v>
       </c>
       <c r="R10" s="1">
-        <v>56.8</v>
+        <v>54.2</v>
       </c>
       <c r="S10" s="1">
-        <v>101.05</v>
+        <v>100.65</v>
       </c>
       <c r="T10" s="1">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -14531,178 +14465,178 @@
         <v>341</v>
       </c>
       <c r="G11" s="1">
-        <v>101.7</v>
+        <v>120.3</v>
       </c>
       <c r="H11" s="1">
-        <v>108.3</v>
+        <v>116.8</v>
       </c>
       <c r="I11" s="1">
-        <v>-6.6</v>
+        <v>3.5</v>
       </c>
       <c r="J11" s="1">
-        <v>48.6</v>
+        <v>53.8</v>
       </c>
       <c r="K11" s="1">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="M11" s="1">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1">
-        <v>81.599999999999994</v>
+        <v>71.2</v>
       </c>
       <c r="O11" s="1">
-        <v>53.8</v>
+        <v>49.1</v>
       </c>
       <c r="P11" s="1">
-        <v>16.600000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="Q11" s="1">
-        <v>50</v>
+        <v>58.3</v>
       </c>
       <c r="R11" s="1">
-        <v>54.2</v>
+        <v>61.6</v>
       </c>
       <c r="S11" s="1">
-        <v>100.65</v>
+        <v>92.83</v>
       </c>
       <c r="T11" s="1">
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="G12" s="1">
-        <v>120.3</v>
+        <v>112.1</v>
       </c>
       <c r="H12" s="1">
-        <v>116.8</v>
+        <v>121.4</v>
       </c>
       <c r="I12" s="1">
-        <v>3.5</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="J12" s="1">
-        <v>53.8</v>
+        <v>51</v>
       </c>
       <c r="K12" s="1">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="L12" s="1">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="M12" s="1">
-        <v>26</v>
+        <v>21.6</v>
       </c>
       <c r="N12" s="1">
-        <v>71.2</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="O12" s="1">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="P12" s="1">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="Q12" s="1">
-        <v>58.3</v>
+        <v>54.9</v>
       </c>
       <c r="R12" s="1">
-        <v>61.6</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1">
-        <v>92.83</v>
+        <v>102.55</v>
       </c>
       <c r="T12" s="1">
-        <v>51.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>112.1</v>
+        <v>101.9</v>
       </c>
       <c r="H13" s="1">
-        <v>121.4</v>
+        <v>111.5</v>
       </c>
       <c r="I13" s="1">
-        <v>-9.3000000000000007</v>
+        <v>-9.6</v>
       </c>
       <c r="J13" s="1">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="L13" s="1">
-        <v>15.8</v>
+        <v>17.3</v>
       </c>
       <c r="M13" s="1">
-        <v>21.6</v>
+        <v>17.2</v>
       </c>
       <c r="N13" s="1">
-        <v>77.900000000000006</v>
+        <v>78</v>
       </c>
       <c r="O13" s="1">
-        <v>49.2</v>
+        <v>46.4</v>
       </c>
       <c r="P13" s="1">
-        <v>12.1</v>
+        <v>13.9</v>
       </c>
       <c r="Q13" s="1">
-        <v>54.9</v>
+        <v>50.5</v>
       </c>
       <c r="R13" s="1">
-        <v>58</v>
+        <v>54.7</v>
       </c>
       <c r="S13" s="1">
-        <v>102.55</v>
+        <v>104.6</v>
       </c>
       <c r="T13" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -14717,116 +14651,116 @@
         <v>240</v>
       </c>
       <c r="G14" s="1">
-        <v>101.9</v>
+        <v>104.1</v>
       </c>
       <c r="H14" s="1">
-        <v>111.5</v>
+        <v>114.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-9.6</v>
+        <v>-10.4</v>
       </c>
       <c r="J14" s="1">
-        <v>64</v>
+        <v>47.3</v>
       </c>
       <c r="K14" s="1">
-        <v>1.63</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L14" s="1">
-        <v>17.3</v>
+        <v>13.2</v>
       </c>
       <c r="M14" s="1">
-        <v>17.2</v>
+        <v>27.7</v>
       </c>
       <c r="N14" s="1">
-        <v>78</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="O14" s="1">
-        <v>46.4</v>
+        <v>48.4</v>
       </c>
       <c r="P14" s="1">
-        <v>13.9</v>
+        <v>15.6</v>
       </c>
       <c r="Q14" s="1">
-        <v>50.5</v>
+        <v>49.2</v>
       </c>
       <c r="R14" s="1">
-        <v>54.7</v>
+        <v>53.7</v>
       </c>
       <c r="S14" s="1">
-        <v>104.6</v>
+        <v>102.4</v>
       </c>
       <c r="T14" s="1">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="G15" s="1">
-        <v>104.1</v>
+        <v>102.4</v>
       </c>
       <c r="H15" s="1">
-        <v>114.5</v>
+        <v>122.9</v>
       </c>
       <c r="I15" s="1">
-        <v>-10.4</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>47.3</v>
+        <v>71</v>
       </c>
       <c r="K15" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="L15" s="1">
-        <v>13.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="N15" s="1">
-        <v>70.400000000000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="O15" s="1">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="P15" s="1">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="1">
-        <v>49.2</v>
+        <v>48.2</v>
       </c>
       <c r="R15" s="1">
-        <v>53.7</v>
+        <v>51.8</v>
       </c>
       <c r="S15" s="1">
-        <v>102.4</v>
+        <v>103</v>
       </c>
       <c r="T15" s="1">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -14841,54 +14775,54 @@
         <v>192</v>
       </c>
       <c r="G16" s="1">
-        <v>102.4</v>
+        <v>103.9</v>
       </c>
       <c r="H16" s="1">
-        <v>122.9</v>
+        <v>112.7</v>
       </c>
       <c r="I16" s="1">
-        <v>-20.399999999999999</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="J16" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="N16" s="1">
         <v>71</v>
       </c>
-      <c r="K16" s="1">
-        <v>1.78</v>
-      </c>
-      <c r="L16" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M16" s="1">
-        <v>26.4</v>
-      </c>
-      <c r="N16" s="1">
-        <v>76.400000000000006</v>
-      </c>
       <c r="O16" s="1">
-        <v>48.8</v>
+        <v>44.7</v>
       </c>
       <c r="P16" s="1">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="Q16" s="1">
-        <v>48.2</v>
+        <v>53</v>
       </c>
       <c r="R16" s="1">
-        <v>51.8</v>
+        <v>56.5</v>
       </c>
       <c r="S16" s="1">
-        <v>103</v>
+        <v>97.88</v>
       </c>
       <c r="T16" s="1">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -14903,149 +14837,66 @@
         <v>192</v>
       </c>
       <c r="G17" s="1">
-        <v>103.9</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1">
-        <v>112.7</v>
+        <v>117.2</v>
       </c>
       <c r="I17" s="1">
-        <v>-8.8000000000000007</v>
+        <v>-12.3</v>
       </c>
       <c r="J17" s="1">
-        <v>61.6</v>
+        <v>52.6</v>
       </c>
       <c r="K17" s="1">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="L17" s="1">
-        <v>17.600000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="M17" s="1">
-        <v>18.5</v>
+        <v>31.6</v>
       </c>
       <c r="N17" s="1">
-        <v>71</v>
+        <v>72.5</v>
       </c>
       <c r="O17" s="1">
-        <v>44.7</v>
+        <v>51.3</v>
       </c>
       <c r="P17" s="1">
-        <v>15.7</v>
+        <v>12.5</v>
       </c>
       <c r="Q17" s="1">
-        <v>53</v>
+        <v>44.3</v>
       </c>
       <c r="R17" s="1">
-        <v>56.5</v>
+        <v>51.2</v>
       </c>
       <c r="S17" s="1">
-        <v>97.88</v>
+        <v>95.75</v>
       </c>
       <c r="T17" s="1">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>192</v>
-      </c>
-      <c r="G18" s="1">
-        <v>105</v>
-      </c>
-      <c r="H18" s="1">
-        <v>117.2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-12.3</v>
-      </c>
-      <c r="J18" s="1">
-        <v>52.6</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="L18" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="M18" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="N18" s="1">
-        <v>72.5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>51.3</v>
-      </c>
-      <c r="P18" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>44.3</v>
-      </c>
-      <c r="R18" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>95.75</v>
-      </c>
-      <c r="T18" s="1">
         <v>44.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://stats.nba.com/team/1610612747/traditional/?" xr:uid="{71C6B8D9-4641-184A-8FD9-6EB4A7EC4350}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://stats.nba.com/team/1610612748/traditional/?" xr:uid="{D201B513-2E50-C646-870B-631DEB72F80F}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://stats.nba.com/team/1610612738/traditional/?" xr:uid="{07D6B037-34B2-E44D-84D2-572D2D659B1C}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://stats.nba.com/team/1610612743/traditional/?" xr:uid="{8F008179-E955-6A41-8F7B-4EA1B7A9662F}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://stats.nba.com/team/1610612746/traditional/?" xr:uid="{FF3A1306-DB2D-3F47-A159-648095E9948D}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{EB7AAC57-45F8-6740-8276-0443C0951AD8}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://stats.nba.com/team/1610612745/traditional/?" xr:uid="{6182645B-9E97-CB4E-9D26-EBF961AAD377}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{2F3D22A0-2F67-D246-8A21-D77946B2F46B}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://stats.nba.com/team/1610612760/traditional/?" xr:uid="{2C432A48-90FB-4C47-A372-A238EB90D28F}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://stats.nba.com/team/1610612762/traditional/?" xr:uid="{87CED8B1-BAD9-B443-8754-87B423BCA5E4}"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://stats.nba.com/team/1610612742/traditional/?" xr:uid="{C18D2F68-F342-E148-A78C-1A249DD6C1AD}"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://stats.nba.com/team/1610612753/traditional/?" xr:uid="{7A7272E9-4127-BA43-930C-6A445B60051E}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://stats.nba.com/team/1610612757/traditional/?" xr:uid="{BB8007BD-5B19-2C4C-871C-5E982FF909AB}"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://stats.nba.com/team/1610612751/traditional/?" xr:uid="{60090733-7678-0843-A3E9-6C2974AEBDC0}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://stats.nba.com/team/1610612754/traditional/?" xr:uid="{E0A8074C-618B-1D44-9AB4-8ED900683DF5}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://stats.nba.com/team/1610612755/traditional/?" xr:uid="{F7DA1009-E7E9-6C4A-B5C4-3638E070D445}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://stats.nba.com/team/1610612747/traditional/?" xr:uid="{71C6B8D9-4641-184A-8FD9-6EB4A7EC4350}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://stats.nba.com/team/1610612748/traditional/?" xr:uid="{D201B513-2E50-C646-870B-631DEB72F80F}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://stats.nba.com/team/1610612738/traditional/?" xr:uid="{07D6B037-34B2-E44D-84D2-572D2D659B1C}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://stats.nba.com/team/1610612743/traditional/?" xr:uid="{8F008179-E955-6A41-8F7B-4EA1B7A9662F}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://stats.nba.com/team/1610612746/traditional/?" xr:uid="{FF3A1306-DB2D-3F47-A159-648095E9948D}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://stats.nba.com/team/1610612761/traditional/?" xr:uid="{EB7AAC57-45F8-6740-8276-0443C0951AD8}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://stats.nba.com/team/1610612745/traditional/?" xr:uid="{6182645B-9E97-CB4E-9D26-EBF961AAD377}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://stats.nba.com/team/1610612749/traditional/?" xr:uid="{2F3D22A0-2F67-D246-8A21-D77946B2F46B}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://stats.nba.com/team/1610612760/traditional/?" xr:uid="{2C432A48-90FB-4C47-A372-A238EB90D28F}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://stats.nba.com/team/1610612762/traditional/?" xr:uid="{87CED8B1-BAD9-B443-8754-87B423BCA5E4}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://stats.nba.com/team/1610612742/traditional/?" xr:uid="{C18D2F68-F342-E148-A78C-1A249DD6C1AD}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://stats.nba.com/team/1610612753/traditional/?" xr:uid="{7A7272E9-4127-BA43-930C-6A445B60051E}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://stats.nba.com/team/1610612757/traditional/?" xr:uid="{BB8007BD-5B19-2C4C-871C-5E982FF909AB}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://stats.nba.com/team/1610612751/traditional/?" xr:uid="{60090733-7678-0843-A3E9-6C2974AEBDC0}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://stats.nba.com/team/1610612754/traditional/?" xr:uid="{E0A8074C-618B-1D44-9AB4-8ED900683DF5}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://stats.nba.com/team/1610612755/traditional/?" xr:uid="{F7DA1009-E7E9-6C4A-B5C4-3638E070D445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nbadata2950.xlsx
+++ b/nbadata2950.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinshah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9C207-8B17-1941-897B-367F67CDDCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE5014A-2896-674E-8D18-4DD620FF7BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="3" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="6" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="bubbleregtrad" sheetId="1" r:id="rId1"/>
     <sheet name="outregtrad" sheetId="2" r:id="rId2"/>
-    <sheet name="bubbleplayofftrad" sheetId="3" r:id="rId3"/>
-    <sheet name="outplayofftrad" sheetId="4" r:id="rId4"/>
+    <sheet name="outplayofftrad" sheetId="3" r:id="rId3"/>
+    <sheet name="bubbleplayofftrad" sheetId="4" r:id="rId4"/>
     <sheet name="bubbleregadv" sheetId="5" r:id="rId5"/>
     <sheet name="outregadv" sheetId="6" r:id="rId6"/>
-    <sheet name="bubbleplayoffadv" sheetId="7" r:id="rId7"/>
-    <sheet name="outplayoffadv" sheetId="8" r:id="rId8"/>
+    <sheet name="outplayoffadv" sheetId="7" r:id="rId7"/>
+    <sheet name="bubbleplayoffadv" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -7623,7 +7623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97066FE1-24DA-FA4A-9C5B-CB0192C36653}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -12737,8 +12737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A1F8A0-DC42-EC45-8643-1DB5E56DDEAC}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/nbadata2950.xlsx
+++ b/nbadata2950.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinshah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB63DED-E75F-8347-BFCE-51C07522D0E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A408F8C5-53B0-6040-88E7-C7037ADE6416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="25780" windowHeight="15840" activeTab="1" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="25780" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{CF221EA7-8924-2D4F-BF2C-6192ED554EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="bubbleregtrad" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="outregadv" sheetId="6" r:id="rId7"/>
     <sheet name="outplayoffadv" sheetId="7" r:id="rId8"/>
     <sheet name="bubbleplayoffadv" sheetId="8" r:id="rId9"/>
+    <sheet name="2019regreg" sheetId="10" r:id="rId10"/>
+    <sheet name="2019regadv" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">bubbleplayoffadv!$A$1:$Z$1</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="105">
   <si>
     <t>TEAM</t>
   </si>
@@ -360,12 +362,15 @@
   <si>
     <t>CY</t>
   </si>
+  <si>
+    <t>AST/RATIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +404,25 @@
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,13 +445,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3395,11 +3423,5330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E226A5F8-BE74-7741-9511-838CDF6C0415}">
+  <dimension ref="A1:AO32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8">
+        <v>82</v>
+      </c>
+      <c r="C2" s="8">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F2" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>113.3</v>
+      </c>
+      <c r="H2" s="9">
+        <v>41.4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>91.8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>45.1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9">
+        <v>37</v>
+      </c>
+      <c r="M2" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N2" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O2" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="P2" s="8">
+        <v>75.2</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="R2" s="9">
+        <v>34.5</v>
+      </c>
+      <c r="S2" s="9">
+        <v>46.1</v>
+      </c>
+      <c r="T2" s="9">
+        <v>25.8</v>
+      </c>
+      <c r="U2" s="9">
+        <v>17</v>
+      </c>
+      <c r="V2" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="W2" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X2" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>-6</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
+        <v>82</v>
+      </c>
+      <c r="C3" s="8">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>112.4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>42.1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>90.5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="K3" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="L3" s="9">
+        <v>34.5</v>
+      </c>
+      <c r="M3" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="N3" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="O3" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="P3" s="8">
+        <v>80.2</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R3" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="S3" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="T3" s="9">
+        <v>26.3</v>
+      </c>
+      <c r="U3" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="V3" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="W3" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="X3" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8">
+        <v>82</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>48.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>112.2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I4" s="9">
+        <v>89.7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>44.9</v>
+      </c>
+      <c r="K4" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="L4" s="9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M4" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="N4" s="8">
+        <v>19</v>
+      </c>
+      <c r="O4" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>11</v>
+      </c>
+      <c r="R4" s="9">
+        <v>35.6</v>
+      </c>
+      <c r="S4" s="9">
+        <v>46.6</v>
+      </c>
+      <c r="T4" s="9">
+        <v>23.8</v>
+      </c>
+      <c r="U4" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="W4" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X4" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8">
+        <v>82</v>
+      </c>
+      <c r="C5" s="8">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>110.7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>89.8</v>
+      </c>
+      <c r="J5" s="8">
+        <v>44.8</v>
+      </c>
+      <c r="K5" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="L5" s="9">
+        <v>33.9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O5" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>79.7</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="R5" s="9">
+        <v>33.9</v>
+      </c>
+      <c r="S5" s="9">
+        <v>43.8</v>
+      </c>
+      <c r="T5" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="U5" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="W5" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X5" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>20.6</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>60</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F6" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>104.9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I6" s="9">
+        <v>87.9</v>
+      </c>
+      <c r="J6" s="8">
+        <v>45.3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>25.9</v>
+      </c>
+      <c r="M6" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="P6" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R6" s="9">
+        <v>34.1</v>
+      </c>
+      <c r="S6" s="9">
+        <v>42.9</v>
+      </c>
+      <c r="T6" s="9">
+        <v>21.9</v>
+      </c>
+      <c r="U6" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="V6" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="W6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="X6" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>-8.4</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
+        <v>82</v>
+      </c>
+      <c r="C7" s="8">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>104.5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>38.9</v>
+      </c>
+      <c r="I7" s="9">
+        <v>87.6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>44.4</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>29.1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O7" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="P7" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>10.7</v>
+      </c>
+      <c r="R7" s="9">
+        <v>31.9</v>
+      </c>
+      <c r="S7" s="9">
+        <v>42.7</v>
+      </c>
+      <c r="T7" s="9">
+        <v>20.7</v>
+      </c>
+      <c r="U7" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="V7" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="W7" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="X7" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>-9.6</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F8" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>108.9</v>
+      </c>
+      <c r="H8" s="9">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I8" s="9">
+        <v>86.9</v>
+      </c>
+      <c r="J8" s="8">
+        <v>44.7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="L8" s="9">
+        <v>36.6</v>
+      </c>
+      <c r="M8" s="8">
+        <v>34</v>
+      </c>
+      <c r="N8" s="8">
+        <v>18.8</v>
+      </c>
+      <c r="O8" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="P8" s="8">
+        <v>74.2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="S8" s="9">
+        <v>45.3</v>
+      </c>
+      <c r="T8" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="U8" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="V8" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="W8" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="X8" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F9" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>110.7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>41.9</v>
+      </c>
+      <c r="I9" s="9">
+        <v>90</v>
+      </c>
+      <c r="J9" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="K9" s="9">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9">
+        <v>31.4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="O9" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="P9" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="R9" s="9">
+        <v>34.5</v>
+      </c>
+      <c r="S9" s="9">
+        <v>46.4</v>
+      </c>
+      <c r="T9" s="9">
+        <v>27.4</v>
+      </c>
+      <c r="U9" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="V9" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="W9" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>107</v>
+      </c>
+      <c r="H10" s="9">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I10" s="9">
+        <v>88.3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M10" s="8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N10" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="O10" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>74.7</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="R10" s="9">
+        <v>33.6</v>
+      </c>
+      <c r="S10" s="9">
+        <v>45</v>
+      </c>
+      <c r="T10" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="U10" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="V10" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="W10" s="9">
+        <v>4</v>
+      </c>
+      <c r="X10" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>21.3</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8">
+        <v>82</v>
+      </c>
+      <c r="C11" s="8">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F11" s="8">
+        <v>48.3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>117.7</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44</v>
+      </c>
+      <c r="I11" s="9">
+        <v>89.8</v>
+      </c>
+      <c r="J11" s="8">
+        <v>49.1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="L11" s="9">
+        <v>34.4</v>
+      </c>
+      <c r="M11" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="N11" s="8">
+        <v>16.3</v>
+      </c>
+      <c r="O11" s="8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P11" s="8">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R11" s="9">
+        <v>36.5</v>
+      </c>
+      <c r="S11" s="9">
+        <v>46.2</v>
+      </c>
+      <c r="T11" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="U11" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="V11" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="W11" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="X11" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F12" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>113.9</v>
+      </c>
+      <c r="H12" s="9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I12" s="9">
+        <v>87.4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>44.9</v>
+      </c>
+      <c r="K12" s="9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L12" s="9">
+        <v>45.4</v>
+      </c>
+      <c r="M12" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="N12" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="P12" s="8">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R12" s="9">
+        <v>31.9</v>
+      </c>
+      <c r="S12" s="9">
+        <v>42.1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="U12" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="W12" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X12" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
+        <v>82</v>
+      </c>
+      <c r="C13" s="8">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F13" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>108</v>
+      </c>
+      <c r="H13" s="9">
+        <v>41.3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>87</v>
+      </c>
+      <c r="J13" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="K13" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="L13" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="M13" s="8">
+        <v>37.4</v>
+      </c>
+      <c r="N13" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="O13" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>75.2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R13" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="S13" s="9">
+        <v>43</v>
+      </c>
+      <c r="T13" s="9">
+        <v>26</v>
+      </c>
+      <c r="U13" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="V13" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W13" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X13" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="8">
+        <v>82</v>
+      </c>
+      <c r="C14" s="8">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F14" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>115.1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>41.3</v>
+      </c>
+      <c r="I14" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>47.1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
+        <v>25.8</v>
+      </c>
+      <c r="M14" s="8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N14" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="O14" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="P14" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R14" s="9">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="S14" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="T14" s="9">
+        <v>24</v>
+      </c>
+      <c r="U14" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="V14" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="W14" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="X14" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8">
+        <v>82</v>
+      </c>
+      <c r="C15" s="8">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>111.8</v>
+      </c>
+      <c r="H15" s="9">
+        <v>42.6</v>
+      </c>
+      <c r="I15" s="9">
+        <v>90.5</v>
+      </c>
+      <c r="J15" s="8">
+        <v>47</v>
+      </c>
+      <c r="K15" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="L15" s="9">
+        <v>31</v>
+      </c>
+      <c r="M15" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="N15" s="8">
+        <v>16.3</v>
+      </c>
+      <c r="O15" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="P15" s="8">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R15" s="9">
+        <v>36.4</v>
+      </c>
+      <c r="S15" s="9">
+        <v>46.6</v>
+      </c>
+      <c r="T15" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="U15" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="V15" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="W15" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="X15" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>-1.7</v>
+      </c>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8">
+        <v>82</v>
+      </c>
+      <c r="C16" s="8">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F16" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>38</v>
+      </c>
+      <c r="I16" s="9">
+        <v>84.4</v>
+      </c>
+      <c r="J16" s="8">
+        <v>45</v>
+      </c>
+      <c r="K16" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="L16" s="9">
+        <v>28.9</v>
+      </c>
+      <c r="M16" s="8">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N16" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="O16" s="8">
+        <v>23</v>
+      </c>
+      <c r="P16" s="8">
+        <v>77.2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R16" s="9">
+        <v>33</v>
+      </c>
+      <c r="S16" s="9">
+        <v>41.8</v>
+      </c>
+      <c r="T16" s="9">
+        <v>23.9</v>
+      </c>
+      <c r="U16" s="9">
+        <v>14</v>
+      </c>
+      <c r="V16" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>-2.6</v>
+      </c>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8">
+        <v>82</v>
+      </c>
+      <c r="C17" s="8">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>105.7</v>
+      </c>
+      <c r="H17" s="9">
+        <v>39.6</v>
+      </c>
+      <c r="I17" s="9">
+        <v>88</v>
+      </c>
+      <c r="J17" s="8">
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="L17" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="M17" s="8">
+        <v>34.9</v>
+      </c>
+      <c r="N17" s="8">
+        <v>15.1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>21.7</v>
+      </c>
+      <c r="P17" s="8">
+        <v>69.5</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="R17" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>46.3</v>
+      </c>
+      <c r="T17" s="9">
+        <v>24.3</v>
+      </c>
+      <c r="U17" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="V17" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="W17" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="8">
+        <v>82</v>
+      </c>
+      <c r="C18" s="8">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8">
+        <v>22</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>118.1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>43.4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>91.1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>47.6</v>
+      </c>
+      <c r="K18" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="L18" s="9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M18" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="N18" s="8">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O18" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="P18" s="8">
+        <v>77.3</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R18" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="S18" s="9">
+        <v>49.7</v>
+      </c>
+      <c r="T18" s="9">
+        <v>26</v>
+      </c>
+      <c r="U18" s="9">
+        <v>13.9</v>
+      </c>
+      <c r="V18" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="W18" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="X18" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8">
+        <v>82</v>
+      </c>
+      <c r="C19" s="8">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.439</v>
+      </c>
+      <c r="F19" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>41.6</v>
+      </c>
+      <c r="I19" s="9">
+        <v>91.3</v>
+      </c>
+      <c r="J19" s="8">
+        <v>45.6</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>28.7</v>
+      </c>
+      <c r="M19" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O19" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="P19" s="8">
+        <v>78.7</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="R19" s="9">
+        <v>33.5</v>
+      </c>
+      <c r="S19" s="9">
+        <v>44.8</v>
+      </c>
+      <c r="T19" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="U19" s="9">
+        <v>13.1</v>
+      </c>
+      <c r="V19" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W19" s="9">
+        <v>5</v>
+      </c>
+      <c r="X19" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>82</v>
+      </c>
+      <c r="C20" s="8">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F20" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>115.4</v>
+      </c>
+      <c r="H20" s="9">
+        <v>43.7</v>
+      </c>
+      <c r="I20" s="9">
+        <v>92.2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>47.3</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="L20" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="M20" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="N20" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="O20" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="P20" s="8">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="R20" s="9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S20" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="T20" s="9">
+        <v>27</v>
+      </c>
+      <c r="U20" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="V20" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="W20" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="X20" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>21</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="8">
+        <v>82</v>
+      </c>
+      <c r="C21" s="8">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>65</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F21" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>104.6</v>
+      </c>
+      <c r="H21" s="9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I21" s="9">
+        <v>88.3</v>
+      </c>
+      <c r="J21" s="8">
+        <v>43.3</v>
+      </c>
+      <c r="K21" s="9">
+        <v>10</v>
+      </c>
+      <c r="L21" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="M21" s="8">
+        <v>34</v>
+      </c>
+      <c r="N21" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O21" s="8">
+        <v>23.9</v>
+      </c>
+      <c r="P21" s="8">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="R21" s="9">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S21" s="9">
+        <v>44.7</v>
+      </c>
+      <c r="T21" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="U21" s="9">
+        <v>14</v>
+      </c>
+      <c r="V21" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="W21" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X21" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8">
+        <v>82</v>
+      </c>
+      <c r="C22" s="8">
+        <v>49</v>
+      </c>
+      <c r="D22" s="8">
+        <v>33</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F22" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>114.5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>42.6</v>
+      </c>
+      <c r="I22" s="9">
+        <v>94</v>
+      </c>
+      <c r="J22" s="8">
+        <v>45.4</v>
+      </c>
+      <c r="K22" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="L22" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="M22" s="8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N22" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="O22" s="8">
+        <v>25</v>
+      </c>
+      <c r="P22" s="8">
+        <v>71.3</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="R22" s="9">
+        <v>35.5</v>
+      </c>
+      <c r="S22" s="9">
+        <v>48.1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="U22" s="9">
+        <v>14</v>
+      </c>
+      <c r="V22" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W22" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="X22" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="8">
+        <v>82</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F23" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>107.3</v>
+      </c>
+      <c r="H23" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="I23" s="9">
+        <v>89.1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>45.4</v>
+      </c>
+      <c r="K23" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="L23" s="9">
+        <v>32.1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="N23" s="8">
+        <v>15</v>
+      </c>
+      <c r="O23" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="P23" s="8">
+        <v>78.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>10</v>
+      </c>
+      <c r="R23" s="9">
+        <v>35.4</v>
+      </c>
+      <c r="S23" s="9">
+        <v>45.4</v>
+      </c>
+      <c r="T23" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="U23" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="V23" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="W23" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="X23" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8">
+        <v>82</v>
+      </c>
+      <c r="C24" s="8">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8">
+        <v>31</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.622</v>
+      </c>
+      <c r="F24" s="8">
+        <v>48.3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>115.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>88.2</v>
+      </c>
+      <c r="J24" s="8">
+        <v>47.1</v>
+      </c>
+      <c r="K24" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="L24" s="9">
+        <v>30.2</v>
+      </c>
+      <c r="M24" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="N24" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="O24" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="P24" s="8">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>10.9</v>
+      </c>
+      <c r="R24" s="9">
+        <v>36.9</v>
+      </c>
+      <c r="S24" s="9">
+        <v>47.8</v>
+      </c>
+      <c r="T24" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="U24" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="V24" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="W24" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="X24" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>21.3</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8">
+        <v>82</v>
+      </c>
+      <c r="C25" s="8">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8">
+        <v>63</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="G25" s="8">
+        <v>107.5</v>
+      </c>
+      <c r="H25" s="9">
+        <v>40.1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>87.4</v>
+      </c>
+      <c r="J25" s="8">
+        <v>45.9</v>
+      </c>
+      <c r="K25" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="L25" s="9">
+        <v>29.3</v>
+      </c>
+      <c r="M25" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="N25" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O25" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="P25" s="8">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>31.3</v>
+      </c>
+      <c r="S25" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="T25" s="9">
+        <v>23.9</v>
+      </c>
+      <c r="U25" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="V25" s="9">
+        <v>9</v>
+      </c>
+      <c r="W25" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X25" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <v>82</v>
+      </c>
+      <c r="C26" s="8">
+        <v>53</v>
+      </c>
+      <c r="D26" s="8">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F26" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G26" s="8">
+        <v>114.7</v>
+      </c>
+      <c r="H26" s="9">
+        <v>42.3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>90.6</v>
+      </c>
+      <c r="J26" s="8">
+        <v>46.7</v>
+      </c>
+      <c r="K26" s="9">
+        <v>11</v>
+      </c>
+      <c r="L26" s="9">
+        <v>30.7</v>
+      </c>
+      <c r="M26" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="N26" s="8">
+        <v>19</v>
+      </c>
+      <c r="O26" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="P26" s="8">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="R26" s="9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S26" s="9">
+        <v>48</v>
+      </c>
+      <c r="T26" s="9">
+        <v>23</v>
+      </c>
+      <c r="U26" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="V26" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="W26" s="9">
+        <v>5</v>
+      </c>
+      <c r="X26" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>82</v>
+      </c>
+      <c r="C27" s="8">
+        <v>39</v>
+      </c>
+      <c r="D27" s="8">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>114.2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>43.2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>93.1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>46.4</v>
+      </c>
+      <c r="K27" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="L27" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="M27" s="8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="N27" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="O27" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="P27" s="8">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>11</v>
+      </c>
+      <c r="R27" s="9">
+        <v>34.4</v>
+      </c>
+      <c r="S27" s="9">
+        <v>45.4</v>
+      </c>
+      <c r="T27" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="U27" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="V27" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W27" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X27" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>82</v>
+      </c>
+      <c r="C28" s="8">
+        <v>48</v>
+      </c>
+      <c r="D28" s="8">
+        <v>34</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F28" s="8">
+        <v>48.3</v>
+      </c>
+      <c r="G28" s="8">
+        <v>111.7</v>
+      </c>
+      <c r="H28" s="9">
+        <v>42.3</v>
+      </c>
+      <c r="I28" s="9">
+        <v>88.4</v>
+      </c>
+      <c r="J28" s="8">
+        <v>47.8</v>
+      </c>
+      <c r="K28" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="L28" s="9">
+        <v>25.3</v>
+      </c>
+      <c r="M28" s="8">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="N28" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="O28" s="8">
+        <v>21</v>
+      </c>
+      <c r="P28" s="8">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="R28" s="9">
+        <v>35.5</v>
+      </c>
+      <c r="S28" s="9">
+        <v>44.7</v>
+      </c>
+      <c r="T28" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="U28" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="V28" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="W28" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="X28" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8">
+        <v>82</v>
+      </c>
+      <c r="C29" s="8">
+        <v>58</v>
+      </c>
+      <c r="D29" s="8">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F29" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="G29" s="8">
+        <v>114.4</v>
+      </c>
+      <c r="H29" s="9">
+        <v>42.2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>89.1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>47.4</v>
+      </c>
+      <c r="K29" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="L29" s="9">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="M29" s="8">
+        <v>36.6</v>
+      </c>
+      <c r="N29" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="O29" s="8">
+        <v>22</v>
+      </c>
+      <c r="P29" s="8">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="R29" s="9">
+        <v>35.6</v>
+      </c>
+      <c r="S29" s="9">
+        <v>45.2</v>
+      </c>
+      <c r="T29" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="U29" s="9">
+        <v>14</v>
+      </c>
+      <c r="V29" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W29" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="X29" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>82</v>
+      </c>
+      <c r="C30" s="8">
+        <v>50</v>
+      </c>
+      <c r="D30" s="8">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="F30" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>111.7</v>
+      </c>
+      <c r="H30" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="I30" s="9">
+        <v>86.4</v>
+      </c>
+      <c r="J30" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="K30" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="L30" s="9">
+        <v>34</v>
+      </c>
+      <c r="M30" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="N30" s="8">
+        <v>18.8</v>
+      </c>
+      <c r="O30" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="P30" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>10</v>
+      </c>
+      <c r="R30" s="9">
+        <v>36.4</v>
+      </c>
+      <c r="S30" s="9">
+        <v>46.4</v>
+      </c>
+      <c r="T30" s="9">
+        <v>26</v>
+      </c>
+      <c r="U30" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="V30" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="W30" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="X30" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>82</v>
+      </c>
+      <c r="C31" s="8">
+        <v>32</v>
+      </c>
+      <c r="D31" s="8">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="F31" s="8">
+        <v>48.6</v>
+      </c>
+      <c r="G31" s="8">
+        <v>114</v>
+      </c>
+      <c r="H31" s="9">
+        <v>42.1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>90.1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="K31" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="L31" s="9">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M31" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O31" s="8">
+        <v>23.9</v>
+      </c>
+      <c r="P31" s="8">
+        <v>76.8</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R31" s="9">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="S31" s="9">
+        <v>42.4</v>
+      </c>
+      <c r="T31" s="9">
+        <v>26.3</v>
+      </c>
+      <c r="U31" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="V31" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W31" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X31" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>-2.9</v>
+      </c>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AB1:AB2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.nba.com/stats/team/1610612738/traditional/" xr:uid="{51838A83-460D-794F-B05A-1777A13C5767}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2E08F8B3-630E-1E47-9285-CEE5C78A9B98}"/>
+    <hyperlink ref="I3" r:id="rId3" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D93C46B7-8907-7049-9FB0-D43D769E275B}"/>
+    <hyperlink ref="K3" r:id="rId4" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7E4CDEE2-86A9-C747-9C00-EF3E5708408D}"/>
+    <hyperlink ref="L3" r:id="rId5" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A7485E95-0C15-FB4B-AB44-FB81A6E2D7C6}"/>
+    <hyperlink ref="Q3" r:id="rId6" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{40FAEA1B-2D92-464A-8E49-57DCFD60C8CF}"/>
+    <hyperlink ref="R3" r:id="rId7" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0832E7A8-63F9-E54C-AA31-94E6C5B9AAAC}"/>
+    <hyperlink ref="S3" r:id="rId8" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2FF6D752-C836-0E40-A4FA-FD75867CAF0B}"/>
+    <hyperlink ref="T3" r:id="rId9" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7FB65DEC-B9FD-7A41-9813-532A38EF64C1}"/>
+    <hyperlink ref="U3" r:id="rId10" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DF76BBF8-4DF9-3940-843E-16F20ADE52D1}"/>
+    <hyperlink ref="V3" r:id="rId11" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CA870A1F-83D7-014B-B7C9-8B125BCE18C4}"/>
+    <hyperlink ref="W3" r:id="rId12" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{227967E2-E5C3-2549-BCDA-8B309FD7A674}"/>
+    <hyperlink ref="X3" r:id="rId13" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612738&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{672AE2D1-13D3-664F-8DA5-62AAC40AF1AC}"/>
+    <hyperlink ref="A4" r:id="rId14" display="https://www.nba.com/stats/team/1610612751/traditional/" xr:uid="{997BE28D-01DB-F149-9EE7-B1AC46BAA8F6}"/>
+    <hyperlink ref="H4" r:id="rId15" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CA24F862-D0BA-BA4D-A0CD-69E8AAA5F9CE}"/>
+    <hyperlink ref="I4" r:id="rId16" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4D4F0790-C72D-664F-BEFB-9F1CE34A2CE8}"/>
+    <hyperlink ref="K4" r:id="rId17" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2305F02A-4BF4-2940-BAC8-82CEF7DB0F9C}"/>
+    <hyperlink ref="L4" r:id="rId18" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6B25278D-3E0E-4946-ADB3-8946AFBFEFDF}"/>
+    <hyperlink ref="Q4" r:id="rId19" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{37E6A43D-61D8-1441-9E49-79E3DDDEB59B}"/>
+    <hyperlink ref="R4" r:id="rId20" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5A7CEA8A-724E-D04C-A3EF-30092B9BA06D}"/>
+    <hyperlink ref="S4" r:id="rId21" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5F7288C9-B811-EE4D-B57F-E699C9529C09}"/>
+    <hyperlink ref="T4" r:id="rId22" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F3A99031-A9A2-9649-BCEA-CC0D21DB2BA0}"/>
+    <hyperlink ref="U4" r:id="rId23" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{27338FC0-D7E2-5440-9C1B-E86B60F19D52}"/>
+    <hyperlink ref="V4" r:id="rId24" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CD44CD64-6EBC-FD46-BC64-EC5C3323B655}"/>
+    <hyperlink ref="W4" r:id="rId25" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{38E2391A-F1B7-1648-91D7-D8231E3B055D}"/>
+    <hyperlink ref="X4" r:id="rId26" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612751&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F875F323-CB46-934E-B21F-8E45FFB74B87}"/>
+    <hyperlink ref="A5" r:id="rId27" display="https://www.nba.com/stats/team/1610612766/traditional/" xr:uid="{B4372C90-F553-324C-9AF2-C9139CADAF4D}"/>
+    <hyperlink ref="H5" r:id="rId28" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{658945A7-9D33-5A43-AAED-9F7A7BB86170}"/>
+    <hyperlink ref="I5" r:id="rId29" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C820E1A0-5DDB-5946-9C82-A5E267A11E9E}"/>
+    <hyperlink ref="K5" r:id="rId30" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9BF56797-1047-AF40-B79A-413F0BFEDBC0}"/>
+    <hyperlink ref="L5" r:id="rId31" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{20BFB655-F6B1-E44D-AE9B-F3FC9211605E}"/>
+    <hyperlink ref="Q5" r:id="rId32" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{170156C3-520E-8E41-A3C9-2DF06E1474CD}"/>
+    <hyperlink ref="R5" r:id="rId33" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BFB35D9B-5BD3-9249-B7FC-60A1C527D128}"/>
+    <hyperlink ref="S5" r:id="rId34" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C9075064-F1D3-B640-9360-A977E39E935C}"/>
+    <hyperlink ref="T5" r:id="rId35" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{09D87707-7687-874B-82B7-775F6BE01F24}"/>
+    <hyperlink ref="U5" r:id="rId36" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E43FC5CF-645A-C246-A36F-B02D47090EA2}"/>
+    <hyperlink ref="V5" r:id="rId37" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6BDBBD47-1872-884E-B56B-909D49646C9E}"/>
+    <hyperlink ref="W5" r:id="rId38" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{55998A9B-4571-0244-B083-26620A5BAC47}"/>
+    <hyperlink ref="X5" r:id="rId39" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612766&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{AD2ED52C-332E-E946-9C3F-D13AEA291D05}"/>
+    <hyperlink ref="A6" r:id="rId40" display="https://www.nba.com/stats/team/1610612741/traditional/" xr:uid="{27184BA9-09C7-4A4D-8C47-FD4303FA6B2B}"/>
+    <hyperlink ref="H6" r:id="rId41" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E373D1C9-F860-7045-B568-A2569CEBE50F}"/>
+    <hyperlink ref="I6" r:id="rId42" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D1E69477-B88B-224F-8935-4408035D4840}"/>
+    <hyperlink ref="K6" r:id="rId43" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6BFA0CEB-8E1F-B247-BB0A-CA0DE352C08A}"/>
+    <hyperlink ref="L6" r:id="rId44" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{740CCFCE-6F99-C846-9E4B-700660A47535}"/>
+    <hyperlink ref="Q6" r:id="rId45" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6B21ECCB-2A79-A34A-9B4F-A29CA0214CD8}"/>
+    <hyperlink ref="R6" r:id="rId46" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4B117887-DE9E-ED4B-BC8B-F2842F2D9CA6}"/>
+    <hyperlink ref="S6" r:id="rId47" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5391349E-AF59-1344-A788-B5E5F3290333}"/>
+    <hyperlink ref="T6" r:id="rId48" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2E670C62-A679-8B47-8530-EAE1BFDF925E}"/>
+    <hyperlink ref="U6" r:id="rId49" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1B983790-C5A7-AD4D-B664-95A9AAB13CB6}"/>
+    <hyperlink ref="V6" r:id="rId50" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{66EBBC59-75DB-1A4E-8C92-347AB996D50C}"/>
+    <hyperlink ref="W6" r:id="rId51" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{34BA0F61-ED29-3047-B451-B3D16CF27C15}"/>
+    <hyperlink ref="X6" r:id="rId52" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612741&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0DA33503-2F08-A245-B5FA-A00DAB6F6543}"/>
+    <hyperlink ref="A7" r:id="rId53" display="https://www.nba.com/stats/team/1610612739/traditional/" xr:uid="{50AEF199-CB1A-EF4B-AD85-EE8328C82627}"/>
+    <hyperlink ref="H7" r:id="rId54" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9442506F-0570-E745-8AC4-36B7C98F679F}"/>
+    <hyperlink ref="I7" r:id="rId55" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{77D90ACC-15E0-9E46-BABF-47143251D6CD}"/>
+    <hyperlink ref="K7" r:id="rId56" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A675703E-CDEC-2647-8257-5C3283EFF324}"/>
+    <hyperlink ref="L7" r:id="rId57" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{387330B4-BCAF-7343-B0A8-06BBE71FF777}"/>
+    <hyperlink ref="Q7" r:id="rId58" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A899F3DB-318B-8D4B-9DDE-60866D31137F}"/>
+    <hyperlink ref="R7" r:id="rId59" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{19A4D073-D193-5546-8F44-1D08AFB8E051}"/>
+    <hyperlink ref="S7" r:id="rId60" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F8749CC7-2318-544A-9431-8F85A3DA1AE4}"/>
+    <hyperlink ref="T7" r:id="rId61" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D60E2D37-DFA1-FA49-AC73-78CE353541E8}"/>
+    <hyperlink ref="U7" r:id="rId62" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CF953287-1C1D-1D42-9874-4152148898F3}"/>
+    <hyperlink ref="V7" r:id="rId63" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{285704D8-415B-6B4A-8443-BDADE9A7C91B}"/>
+    <hyperlink ref="W7" r:id="rId64" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{36A50D9A-4C46-834F-9DE8-0636F1D5AF0B}"/>
+    <hyperlink ref="X7" r:id="rId65" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612739&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3453268E-9411-C746-98E2-02B11AC1A95C}"/>
+    <hyperlink ref="A8" r:id="rId66" display="https://www.nba.com/stats/team/1610612742/traditional/" xr:uid="{31D45F23-E600-2D4E-8448-C14EF8EA009F}"/>
+    <hyperlink ref="H8" r:id="rId67" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{17BA3916-F7D1-F14B-AF98-C582D90FB24A}"/>
+    <hyperlink ref="I8" r:id="rId68" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{519BD3B7-8E7D-4E43-BF78-1C08B038AFD5}"/>
+    <hyperlink ref="K8" r:id="rId69" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{39493481-06A4-FE40-AE29-C72771260A11}"/>
+    <hyperlink ref="L8" r:id="rId70" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{21894B3D-B048-BA46-92BF-9DD1FEA09B3B}"/>
+    <hyperlink ref="Q8" r:id="rId71" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{540C8877-68F0-1E46-9C62-B44FFC68D68E}"/>
+    <hyperlink ref="R8" r:id="rId72" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{09603B7C-2021-4945-B507-704DE23B9F75}"/>
+    <hyperlink ref="S8" r:id="rId73" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5FE283C3-5FFF-914D-A6E1-DC65E98AA9B0}"/>
+    <hyperlink ref="T8" r:id="rId74" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{38EFB64E-AE1D-3B44-A80D-4A400EFA5AF2}"/>
+    <hyperlink ref="U8" r:id="rId75" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{AFF58114-C1E3-8C49-BFEF-B84129635A0E}"/>
+    <hyperlink ref="V8" r:id="rId76" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7C516FD8-168B-E845-8B6E-972B6974DBBE}"/>
+    <hyperlink ref="W8" r:id="rId77" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2174902D-FB0C-0E45-A906-8DB52FE089BA}"/>
+    <hyperlink ref="X8" r:id="rId78" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612742&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8495CCD7-B05A-6148-91B6-534F08EB3016}"/>
+    <hyperlink ref="A9" r:id="rId79" display="https://www.nba.com/stats/team/1610612743/traditional/" xr:uid="{884996BF-A683-834D-A2CE-769E22556AD7}"/>
+    <hyperlink ref="H9" r:id="rId80" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2AE7FD86-BCED-714C-B9A6-E58E48D36CE3}"/>
+    <hyperlink ref="I9" r:id="rId81" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B72EAB90-D3D8-9042-9241-2DBAD2F9436F}"/>
+    <hyperlink ref="K9" r:id="rId82" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DA1E49C6-E224-7E47-9916-82660FDA2C55}"/>
+    <hyperlink ref="L9" r:id="rId83" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FAA6146E-7C7F-FA4F-B4C1-6B1310B3CB84}"/>
+    <hyperlink ref="Q9" r:id="rId84" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4BC099E2-8F5B-364F-A928-3FE952EF51A0}"/>
+    <hyperlink ref="R9" r:id="rId85" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{648A79A1-E2C8-284F-8D28-DD323C05D495}"/>
+    <hyperlink ref="S9" r:id="rId86" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5CB502E1-1117-4F4F-B270-6E1EA6F406F8}"/>
+    <hyperlink ref="T9" r:id="rId87" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4D981A67-A13C-574F-8051-B024AD64BC6D}"/>
+    <hyperlink ref="U9" r:id="rId88" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FBF80221-729E-7948-9609-8CEEA55E90C7}"/>
+    <hyperlink ref="V9" r:id="rId89" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6E71E048-C579-614B-A750-201E54451BA8}"/>
+    <hyperlink ref="W9" r:id="rId90" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{03649B45-FFCA-7946-A825-BD41B7BCFF3F}"/>
+    <hyperlink ref="X9" r:id="rId91" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612743&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3AD55EFB-0912-C24D-A6BB-D489E1B27B2E}"/>
+    <hyperlink ref="A10" r:id="rId92" display="https://www.nba.com/stats/team/1610612765/traditional/" xr:uid="{216BB9B0-4755-D042-B07E-02E9C3071D02}"/>
+    <hyperlink ref="H10" r:id="rId93" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DAD05D37-893E-2D4D-A25E-AE9B0C598DD8}"/>
+    <hyperlink ref="I10" r:id="rId94" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B43D12E7-DD61-2845-BC86-92846CE1225B}"/>
+    <hyperlink ref="K10" r:id="rId95" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8995DA32-5EBF-A44D-8597-8A0E23AC9FD6}"/>
+    <hyperlink ref="L10" r:id="rId96" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{924F7A50-7D50-7A47-9E17-4E91883B09AE}"/>
+    <hyperlink ref="Q10" r:id="rId97" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8710DDDE-DF19-F146-8785-2FF073208DA1}"/>
+    <hyperlink ref="R10" r:id="rId98" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1F5B2030-6C12-0D42-8C48-824681E0F70D}"/>
+    <hyperlink ref="S10" r:id="rId99" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2FB810C0-380C-5345-9378-D0880F06D0A7}"/>
+    <hyperlink ref="T10" r:id="rId100" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C226DB5F-0ADA-A44D-835B-B6E3FE825097}"/>
+    <hyperlink ref="U10" r:id="rId101" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{77A18D6D-F02E-0B41-9439-CE5AAD22A94F}"/>
+    <hyperlink ref="V10" r:id="rId102" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6C84AEC8-CC7E-8645-A5E6-9EB9EE448DC8}"/>
+    <hyperlink ref="W10" r:id="rId103" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9183A3FA-020B-5441-9628-B6EEC23BC4AA}"/>
+    <hyperlink ref="X10" r:id="rId104" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612765&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{01241939-A6C8-E04D-86B2-D48E822152AF}"/>
+    <hyperlink ref="A11" r:id="rId105" display="https://www.nba.com/stats/team/1610612744/traditional/" xr:uid="{E17CC902-AF2F-394A-845C-56F9920F8D54}"/>
+    <hyperlink ref="H11" r:id="rId106" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6510B441-6142-A046-9BD8-EC3D387F389C}"/>
+    <hyperlink ref="I11" r:id="rId107" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{62C3F97C-2B56-E445-BE1F-285D386EF200}"/>
+    <hyperlink ref="K11" r:id="rId108" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EBEEBF8E-B255-1A44-8BA2-63E7C63DEFA7}"/>
+    <hyperlink ref="L11" r:id="rId109" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D0DB3880-EA54-1047-9CB6-B618F7DEA3FB}"/>
+    <hyperlink ref="Q11" r:id="rId110" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A7E23AEE-928E-C24D-8C31-6EBE871E1866}"/>
+    <hyperlink ref="R11" r:id="rId111" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{48D17AD6-A263-C748-B6EF-5AED4FBE530B}"/>
+    <hyperlink ref="S11" r:id="rId112" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{173F222B-8A0E-7146-9D8C-1DAB058133CA}"/>
+    <hyperlink ref="T11" r:id="rId113" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{787856C6-01A7-3A41-B7B8-B0FC401BCE6F}"/>
+    <hyperlink ref="U11" r:id="rId114" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{44231F73-9DED-8F4D-BD62-A0A247E563F3}"/>
+    <hyperlink ref="V11" r:id="rId115" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D57EBE47-134D-9F47-A162-F63EDAABE994}"/>
+    <hyperlink ref="W11" r:id="rId116" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F8BBF03F-EDFA-6D4E-9A9F-4EA1A5F6733F}"/>
+    <hyperlink ref="X11" r:id="rId117" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612744&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{92583E64-6315-5F4B-B9B7-5C6464DF4593}"/>
+    <hyperlink ref="A12" r:id="rId118" display="https://www.nba.com/stats/team/1610612745/traditional/" xr:uid="{D70F1D14-DED2-7544-B1DF-E2DB42CD8BDD}"/>
+    <hyperlink ref="H12" r:id="rId119" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8EE3D36A-920D-2F48-91A5-D7B6E54C4CA6}"/>
+    <hyperlink ref="I12" r:id="rId120" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C739FB2C-5D52-3341-96D1-3B7477179F71}"/>
+    <hyperlink ref="K12" r:id="rId121" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{48B01266-7353-1448-81D1-0CC07AE95D67}"/>
+    <hyperlink ref="L12" r:id="rId122" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B460BFAE-4CB2-7A42-96DC-5062822F155F}"/>
+    <hyperlink ref="Q12" r:id="rId123" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2C582A92-9112-B444-B323-6EF54814F23D}"/>
+    <hyperlink ref="R12" r:id="rId124" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FA485300-924F-0947-97CB-74AE5F89381F}"/>
+    <hyperlink ref="S12" r:id="rId125" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9D907640-005E-1F4E-87DB-47C9374075CC}"/>
+    <hyperlink ref="T12" r:id="rId126" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C243B836-4709-EC4C-8C7B-594351EC6BE6}"/>
+    <hyperlink ref="U12" r:id="rId127" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{76445024-9152-2D4D-9405-1DE07BA37BB5}"/>
+    <hyperlink ref="V12" r:id="rId128" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{86EBE01F-2AAA-C24E-A58A-8E3A8E6FD67B}"/>
+    <hyperlink ref="W12" r:id="rId129" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{37933796-E46F-4145-BC27-A8D34E3379D5}"/>
+    <hyperlink ref="X12" r:id="rId130" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612745&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9637EAFA-72D4-294E-938F-C5B9ED045672}"/>
+    <hyperlink ref="A13" r:id="rId131" display="https://www.nba.com/stats/team/1610612754/traditional/" xr:uid="{9A661A17-281D-7E49-AEF7-1964113DFCBE}"/>
+    <hyperlink ref="H13" r:id="rId132" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{50FD9C60-8639-7A44-A944-3311498963AA}"/>
+    <hyperlink ref="I13" r:id="rId133" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A0DC8224-F478-044F-8676-C1421CDF3CC2}"/>
+    <hyperlink ref="K13" r:id="rId134" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{702B8CB0-62AB-EF45-83CA-7699FE4CE1CB}"/>
+    <hyperlink ref="L13" r:id="rId135" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D964CF36-CEDB-6542-8EBE-F8F5A0E539A5}"/>
+    <hyperlink ref="Q13" r:id="rId136" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9D96FDA9-67ED-2A42-A775-079741987915}"/>
+    <hyperlink ref="R13" r:id="rId137" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BB1541C9-D88C-5E48-862C-3AF63B838966}"/>
+    <hyperlink ref="S13" r:id="rId138" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2F345DB1-4563-B744-AC47-961316B8E790}"/>
+    <hyperlink ref="T13" r:id="rId139" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{32E2DB8F-D2EB-9145-AC38-BC981DE35D44}"/>
+    <hyperlink ref="U13" r:id="rId140" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{95A578C6-A1D1-8140-AC0D-9AA7447E123D}"/>
+    <hyperlink ref="V13" r:id="rId141" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3A18EF6B-8DC4-B040-8723-9FF0E4F84F9D}"/>
+    <hyperlink ref="W13" r:id="rId142" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3B342075-4133-524F-A731-18CF7AEE9150}"/>
+    <hyperlink ref="X13" r:id="rId143" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612754&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{813507EA-D351-4D4E-BC2C-9D70B0000B14}"/>
+    <hyperlink ref="A14" r:id="rId144" display="https://www.nba.com/stats/team/1610612746/traditional/" xr:uid="{F1B7BFB7-F583-9744-B692-A3F1FC1BD040}"/>
+    <hyperlink ref="H14" r:id="rId145" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1439F9DE-B78C-4244-9400-D1652601F805}"/>
+    <hyperlink ref="I14" r:id="rId146" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CCAEEC19-D68B-A746-A1DB-324BD7F850B8}"/>
+    <hyperlink ref="K14" r:id="rId147" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{990AFDF9-CB69-B542-8A1B-49A01801E4DC}"/>
+    <hyperlink ref="L14" r:id="rId148" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{294F149D-2F50-014A-A6F1-3150B129FB62}"/>
+    <hyperlink ref="Q14" r:id="rId149" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{45A25203-D223-174C-8DC8-5E435EDCF705}"/>
+    <hyperlink ref="R14" r:id="rId150" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E615839C-BA44-4942-93BD-E923FE60D9BA}"/>
+    <hyperlink ref="S14" r:id="rId151" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EDD75166-AA08-4C4F-BEAB-D04CA8F687AE}"/>
+    <hyperlink ref="T14" r:id="rId152" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9A25AC62-FB31-E048-92B2-8E3A0B7EA504}"/>
+    <hyperlink ref="U14" r:id="rId153" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F68462D5-50D7-BD40-8E43-394CB0EF34DA}"/>
+    <hyperlink ref="V14" r:id="rId154" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{12170C44-26D3-C549-8335-09297220E42E}"/>
+    <hyperlink ref="W14" r:id="rId155" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DD2BCE16-FF6D-6F42-A860-ABC5EC8DA13D}"/>
+    <hyperlink ref="X14" r:id="rId156" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612746&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B8506D0B-426F-7C4E-8CE4-A8EA981B024C}"/>
+    <hyperlink ref="A15" r:id="rId157" display="https://www.nba.com/stats/team/1610612747/traditional/" xr:uid="{7DF38361-C09B-F744-AE57-25212C68F236}"/>
+    <hyperlink ref="H15" r:id="rId158" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3AC147AB-01A6-774B-8DF7-7C52BA25BCDA}"/>
+    <hyperlink ref="I15" r:id="rId159" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E0589D6D-CF07-104B-8258-B7A760CC71EC}"/>
+    <hyperlink ref="K15" r:id="rId160" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6FC36C97-7531-0548-B0C2-6991D91F537D}"/>
+    <hyperlink ref="L15" r:id="rId161" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{70B09C19-4DA0-CA49-8E7F-4B8AFA159790}"/>
+    <hyperlink ref="Q15" r:id="rId162" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{42CF3915-9C68-884C-9BD8-94ADD65A0CE8}"/>
+    <hyperlink ref="R15" r:id="rId163" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1D16D30D-CDF9-6340-B4D5-D8BA8DB34738}"/>
+    <hyperlink ref="S15" r:id="rId164" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DE198366-D3BA-0941-BC58-F35F2CDF8D03}"/>
+    <hyperlink ref="T15" r:id="rId165" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B6BEBB3D-18C2-CB42-8500-D9ACD497C4AB}"/>
+    <hyperlink ref="U15" r:id="rId166" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2B8AB66A-4E4C-7046-93A7-C4E8D2CF2B36}"/>
+    <hyperlink ref="V15" r:id="rId167" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{97E2B462-61B1-8C44-9113-240D6CB19F52}"/>
+    <hyperlink ref="W15" r:id="rId168" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3CC43016-FE09-9E43-8F1F-63D399A5D5C7}"/>
+    <hyperlink ref="X15" r:id="rId169" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{879D13FE-3DFB-7F45-8C05-31B7F2D8A7EF}"/>
+    <hyperlink ref="A16" r:id="rId170" display="https://www.nba.com/stats/team/1610612763/traditional/" xr:uid="{CC0A335F-4E98-9648-B2E7-179EA080EB91}"/>
+    <hyperlink ref="H16" r:id="rId171" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{11842D8C-F1CD-B440-A023-BDF18B1DC8C6}"/>
+    <hyperlink ref="I16" r:id="rId172" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3B62E3A6-D377-384D-8C77-0229F7F41FE9}"/>
+    <hyperlink ref="K16" r:id="rId173" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8E04C42A-20E7-354D-AC18-B51A86C84908}"/>
+    <hyperlink ref="L16" r:id="rId174" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{08CC1513-F5AB-D84B-B7BE-856E0DF8B6B2}"/>
+    <hyperlink ref="Q16" r:id="rId175" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7D99C9A1-2C70-154C-A554-089CF05E5001}"/>
+    <hyperlink ref="R16" r:id="rId176" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FAF44E1A-58E9-A14E-836E-E81EDF1FC6DA}"/>
+    <hyperlink ref="S16" r:id="rId177" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9B2BB1B7-BAD8-8342-A8C9-9AF7F5730129}"/>
+    <hyperlink ref="T16" r:id="rId178" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{ECA7D086-9085-C545-B09F-6FAA29E99FE6}"/>
+    <hyperlink ref="U16" r:id="rId179" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8126D4EA-21D0-3E43-9055-FCE4ACA5131E}"/>
+    <hyperlink ref="V16" r:id="rId180" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F156FD8E-204D-704B-8AA9-B5A0EA2D0379}"/>
+    <hyperlink ref="W16" r:id="rId181" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CE0E3325-496E-714C-BC8B-0D7E5621AD16}"/>
+    <hyperlink ref="X16" r:id="rId182" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612763&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1528B1BB-4978-574D-BE2E-8445B30919EC}"/>
+    <hyperlink ref="A17" r:id="rId183" display="https://www.nba.com/stats/team/1610612748/traditional/" xr:uid="{D507792D-A829-E04A-96A3-655427384A6C}"/>
+    <hyperlink ref="H17" r:id="rId184" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{22A044C9-DBF9-0544-9A97-AA1BEFA58ED1}"/>
+    <hyperlink ref="I17" r:id="rId185" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BEBC559C-D2E2-0E4F-95D2-5EA82AB60171}"/>
+    <hyperlink ref="K17" r:id="rId186" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1E7D3468-5352-2241-9AE6-A5CA0D6AE758}"/>
+    <hyperlink ref="L17" r:id="rId187" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BA098938-1380-4F4E-B7A8-9E69CE05315D}"/>
+    <hyperlink ref="Q17" r:id="rId188" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{03405771-8044-1247-B0D4-90D13BB75BAD}"/>
+    <hyperlink ref="R17" r:id="rId189" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CB1B86AA-FD3F-CD45-8ACF-48AFDF6BD11D}"/>
+    <hyperlink ref="S17" r:id="rId190" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{99A822E7-90BA-9E45-B657-C70E982728B0}"/>
+    <hyperlink ref="T17" r:id="rId191" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CDEFBBA6-F2EA-E84C-A806-6B2C412317FE}"/>
+    <hyperlink ref="U17" r:id="rId192" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DEB9D629-EA64-4546-8EDF-C0F6A4D5D7C9}"/>
+    <hyperlink ref="V17" r:id="rId193" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0630F78A-D7F4-9548-A480-C02618D17E0C}"/>
+    <hyperlink ref="W17" r:id="rId194" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{02B35C8F-3CA5-CA48-B596-C263A6C7994D}"/>
+    <hyperlink ref="X17" r:id="rId195" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612748&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4857B0DC-073C-ED48-B7EA-7D6D4417D9B9}"/>
+    <hyperlink ref="A18" r:id="rId196" display="https://www.nba.com/stats/team/1610612749/traditional/" xr:uid="{00791476-C5A3-4446-8229-F8F1CB7AF8BA}"/>
+    <hyperlink ref="H18" r:id="rId197" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2A68CBDE-CFE8-254D-B754-F1A76CC9A741}"/>
+    <hyperlink ref="I18" r:id="rId198" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{70E4C2FC-F007-4241-9FC2-DE2E06A6DDC6}"/>
+    <hyperlink ref="K18" r:id="rId199" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{17B7A90A-E558-664D-9B7E-C1F2E26E66F4}"/>
+    <hyperlink ref="L18" r:id="rId200" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DCE2B70D-52A5-4944-8F99-C3734DE4C5E5}"/>
+    <hyperlink ref="Q18" r:id="rId201" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EB3C9101-9422-924D-88CE-7C10ACD6B812}"/>
+    <hyperlink ref="R18" r:id="rId202" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B004012E-CE5B-AC4D-9862-80DB1804173C}"/>
+    <hyperlink ref="S18" r:id="rId203" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8DB9E5B3-63E8-8B4D-81B8-6FA7E0F72432}"/>
+    <hyperlink ref="T18" r:id="rId204" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C5CA6214-C761-5A4B-AC26-654989743733}"/>
+    <hyperlink ref="U18" r:id="rId205" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9E52CA21-D891-104C-8E8D-03E77C233721}"/>
+    <hyperlink ref="V18" r:id="rId206" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{82691350-2E00-0548-966A-F1CD1FC95595}"/>
+    <hyperlink ref="W18" r:id="rId207" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{54999B7D-B3B5-AE41-97F0-0BC3DBFAE5D4}"/>
+    <hyperlink ref="X18" r:id="rId208" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612749&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A375DCA0-B78E-3B47-9029-93386AECE08E}"/>
+    <hyperlink ref="A19" r:id="rId209" display="https://www.nba.com/stats/team/1610612750/traditional/" xr:uid="{753AF9D0-C1C1-4C48-88DE-75FAE271123F}"/>
+    <hyperlink ref="H19" r:id="rId210" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{746C5433-73A8-D34B-8DDA-7576174A763B}"/>
+    <hyperlink ref="I19" r:id="rId211" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{16949686-0DC1-1746-A3F9-F966A16638F7}"/>
+    <hyperlink ref="K19" r:id="rId212" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2F8DEEE5-4FF4-EE44-B6AB-FA0394E5B440}"/>
+    <hyperlink ref="L19" r:id="rId213" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{76ACC6E8-B8E3-EE4A-8023-FDC634965FA5}"/>
+    <hyperlink ref="Q19" r:id="rId214" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8838E410-6B2B-8B42-B53A-B81893560FDA}"/>
+    <hyperlink ref="R19" r:id="rId215" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{42DB4E28-A297-8447-9391-1E4C326472A6}"/>
+    <hyperlink ref="S19" r:id="rId216" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5D8FC1D2-D2B9-424E-88D8-4431464FFF7F}"/>
+    <hyperlink ref="T19" r:id="rId217" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D7E9A80C-6A02-E949-9A18-7C9E31DECC25}"/>
+    <hyperlink ref="U19" r:id="rId218" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1797BE35-6A5A-2D4C-90A1-323DE03DC920}"/>
+    <hyperlink ref="V19" r:id="rId219" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FDAA6273-A418-A346-BFF4-E160FC1A7EDD}"/>
+    <hyperlink ref="W19" r:id="rId220" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3C7884E3-3FFD-614A-A3F5-D608FA5FFA14}"/>
+    <hyperlink ref="X19" r:id="rId221" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612750&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{96248B15-5F31-B54C-83D7-66D2952B698E}"/>
+    <hyperlink ref="A20" r:id="rId222" display="https://www.nba.com/stats/team/1610612740/traditional/" xr:uid="{D89ED472-5EAD-C74D-8DE0-54EF39974B78}"/>
+    <hyperlink ref="H20" r:id="rId223" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E253AB4F-6F64-F447-B2C9-994193FBC7E0}"/>
+    <hyperlink ref="I20" r:id="rId224" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1761CC51-1D9A-F748-A071-3341BEA3A9E7}"/>
+    <hyperlink ref="K20" r:id="rId225" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D93BF966-BDE6-3E4E-8AEC-22C37542FE85}"/>
+    <hyperlink ref="L20" r:id="rId226" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C443FEF5-A85E-B64C-A74C-4E6EE2F8FEAC}"/>
+    <hyperlink ref="Q20" r:id="rId227" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{73A2271A-5350-7A47-9A5D-A1A41FCAC6FB}"/>
+    <hyperlink ref="R20" r:id="rId228" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{05E8E6AE-CDC8-5346-93CB-56F26F32BF28}"/>
+    <hyperlink ref="S20" r:id="rId229" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1AF419E4-75A5-0C44-90C0-0F0B91BDCB5E}"/>
+    <hyperlink ref="T20" r:id="rId230" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3E543E12-514C-6542-B22D-CCCF312E5C30}"/>
+    <hyperlink ref="U20" r:id="rId231" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{AA95A64C-076A-144D-A35A-F1CB1E8E3C06}"/>
+    <hyperlink ref="V20" r:id="rId232" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{98FF8E72-3D87-8D43-B9A7-DD8FF6C91B1A}"/>
+    <hyperlink ref="W20" r:id="rId233" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D5621116-9A66-7343-B104-805C45574062}"/>
+    <hyperlink ref="X20" r:id="rId234" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612740&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4DA89ED4-906F-004A-9CF0-3BAB9ABBD0D1}"/>
+    <hyperlink ref="A21" r:id="rId235" display="https://www.nba.com/stats/team/1610612752/traditional/" xr:uid="{36238BB2-8FCE-E54D-9A43-F46CCBC79BEC}"/>
+    <hyperlink ref="H21" r:id="rId236" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0649405C-B668-0D4B-A818-4A3FB8915D5B}"/>
+    <hyperlink ref="I21" r:id="rId237" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{41279693-D9C8-804C-B0BD-09DF2B495E19}"/>
+    <hyperlink ref="K21" r:id="rId238" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F17EFBE7-667A-9147-8F50-C51293677F05}"/>
+    <hyperlink ref="L21" r:id="rId239" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5E0A46AD-6B36-9148-A4AE-36B46B023D48}"/>
+    <hyperlink ref="Q21" r:id="rId240" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E5DB9B27-EC58-604F-BFCD-613ABDFDD651}"/>
+    <hyperlink ref="R21" r:id="rId241" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{940B414B-6A36-E646-B4B6-9887B4D7E444}"/>
+    <hyperlink ref="S21" r:id="rId242" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A2016724-37CD-2C4C-82F8-C09ACC3759FA}"/>
+    <hyperlink ref="T21" r:id="rId243" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7F6B4C4B-23C6-154C-867F-4B30136B4145}"/>
+    <hyperlink ref="U21" r:id="rId244" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{89B5F597-ADB3-6143-992C-3D3422483EDE}"/>
+    <hyperlink ref="V21" r:id="rId245" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{378F65D3-8216-7F4C-B5A5-094A61955729}"/>
+    <hyperlink ref="W21" r:id="rId246" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{061FFE25-E193-D144-BCF8-4C4B9B3BE094}"/>
+    <hyperlink ref="X21" r:id="rId247" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612752&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{021BB65D-F416-6943-8BEE-4FE693AE16DE}"/>
+    <hyperlink ref="A22" r:id="rId248" display="https://www.nba.com/stats/team/1610612760/traditional/" xr:uid="{CA69F7E9-1BFA-4548-969E-A20EA0796EB8}"/>
+    <hyperlink ref="H22" r:id="rId249" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{23C15F46-D950-904A-AADF-A3DF8A53ED83}"/>
+    <hyperlink ref="I22" r:id="rId250" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9CE09A87-56A6-D34A-A758-0E4F0AAACA35}"/>
+    <hyperlink ref="K22" r:id="rId251" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B8786319-4661-414E-B2C1-FA1FA25F7824}"/>
+    <hyperlink ref="L22" r:id="rId252" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3A1BE754-8392-FC4E-B18F-14EF9726CA4C}"/>
+    <hyperlink ref="Q22" r:id="rId253" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{58D48BA1-3FD0-2D4E-BC59-CEBAA218A420}"/>
+    <hyperlink ref="R22" r:id="rId254" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C23BCA6E-8BF1-564E-92D0-B516E93A8DA2}"/>
+    <hyperlink ref="S22" r:id="rId255" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{64A5A8AB-9F01-4F4D-B02C-43A15E735411}"/>
+    <hyperlink ref="T22" r:id="rId256" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4F7C7B17-884D-5A4A-A9CD-917D6F6602F4}"/>
+    <hyperlink ref="U22" r:id="rId257" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{53C7E230-AA83-7045-8B18-B1C543CA248D}"/>
+    <hyperlink ref="V22" r:id="rId258" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0159DF49-DD5D-3E48-A3E2-E5CD3F216358}"/>
+    <hyperlink ref="W22" r:id="rId259" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{56E0D7BF-2ADC-C94D-B633-64702D620EB0}"/>
+    <hyperlink ref="X22" r:id="rId260" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612760&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{23EB7C80-7621-D84D-951A-95A811A11948}"/>
+    <hyperlink ref="A23" r:id="rId261" display="https://www.nba.com/stats/team/1610612753/traditional/" xr:uid="{D0497133-4A83-3244-B586-53155BDBD616}"/>
+    <hyperlink ref="H23" r:id="rId262" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5A46B9E0-5BF1-594B-842C-20D34E71C180}"/>
+    <hyperlink ref="I23" r:id="rId263" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0E323498-09AE-D745-A3B5-9F5A6C62AFAD}"/>
+    <hyperlink ref="K23" r:id="rId264" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DBE04AAE-DF34-954B-B1CE-D0E33F08B9AC}"/>
+    <hyperlink ref="L23" r:id="rId265" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0FBE7777-581C-8844-8294-4C6E4005CCB8}"/>
+    <hyperlink ref="Q23" r:id="rId266" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3FBBB4DD-3701-1F4D-8EF7-C58B5F91428A}"/>
+    <hyperlink ref="R23" r:id="rId267" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E4E78247-3CBF-5840-BCF9-C7200A7B10B1}"/>
+    <hyperlink ref="S23" r:id="rId268" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F7A60233-5E80-3C4C-B053-03C5CB4E824F}"/>
+    <hyperlink ref="T23" r:id="rId269" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8AE7CD34-1F07-A745-B9EE-22E63CD5450E}"/>
+    <hyperlink ref="U23" r:id="rId270" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BF3F1C7D-A61A-7247-8D75-DB765D7DF791}"/>
+    <hyperlink ref="V23" r:id="rId271" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D163AE7E-EF5E-164B-A518-EC05E751EFBD}"/>
+    <hyperlink ref="W23" r:id="rId272" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{954BAEBC-E098-F841-A17A-3EDBDA111E84}"/>
+    <hyperlink ref="X23" r:id="rId273" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612753&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{036493C5-9B70-DE4F-8934-EF089684333D}"/>
+    <hyperlink ref="A24" r:id="rId274" display="https://www.nba.com/stats/team/1610612755/traditional/" xr:uid="{19F2C04B-DD68-5243-B034-1C8A9A58EE2B}"/>
+    <hyperlink ref="H24" r:id="rId275" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1011F818-F7E0-9649-9DCD-5D1444903B6B}"/>
+    <hyperlink ref="I24" r:id="rId276" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2A2925B4-D2DC-014A-814A-4F90C2AEFDC9}"/>
+    <hyperlink ref="K24" r:id="rId277" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{02D8A7CF-2A98-0A48-B0FD-E440F29916DE}"/>
+    <hyperlink ref="L24" r:id="rId278" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B6E35085-BB8A-1B4F-8F77-FB56F5F8DAEE}"/>
+    <hyperlink ref="Q24" r:id="rId279" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0177B3CB-2838-9142-80A7-7CFBC8E30DB6}"/>
+    <hyperlink ref="R24" r:id="rId280" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2A44F0A4-1425-0640-8607-BE4E2E7BCB43}"/>
+    <hyperlink ref="S24" r:id="rId281" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B5EB36C4-ACC9-7946-9550-2C3F533F4AD9}"/>
+    <hyperlink ref="T24" r:id="rId282" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9A8D21D0-5ECB-6E41-8175-9922EBE9D15B}"/>
+    <hyperlink ref="U24" r:id="rId283" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{80003B24-0D3A-AE47-A8D7-955F2387CF11}"/>
+    <hyperlink ref="V24" r:id="rId284" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{148D935A-269E-F84A-86AB-78B3390FC162}"/>
+    <hyperlink ref="W24" r:id="rId285" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BD774064-E583-CD43-A288-4152C5CF328C}"/>
+    <hyperlink ref="X24" r:id="rId286" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612755&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A86D2534-E4E7-764B-88BF-A507A0EA54AE}"/>
+    <hyperlink ref="A25" r:id="rId287" display="https://www.nba.com/stats/team/1610612756/traditional/" xr:uid="{9A63FE6F-4B55-3848-96D7-0B6ABEE0EAD1}"/>
+    <hyperlink ref="H25" r:id="rId288" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{23EAD3FE-4C7D-3548-91F7-8A0142B2248A}"/>
+    <hyperlink ref="I25" r:id="rId289" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{38947452-C57D-F442-837B-69F559582079}"/>
+    <hyperlink ref="K25" r:id="rId290" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F009E3BC-F85E-6B4E-AB3B-AA9D306192D7}"/>
+    <hyperlink ref="L25" r:id="rId291" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3D8A6B7A-EFEB-6A42-9162-73DE91F4346F}"/>
+    <hyperlink ref="Q25" r:id="rId292" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{50904E6A-7434-FB42-93D7-7140B0AEED98}"/>
+    <hyperlink ref="R25" r:id="rId293" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EC57AA65-A66A-A541-8171-F652CB2A930A}"/>
+    <hyperlink ref="S25" r:id="rId294" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{990AF849-3BA5-1D4F-B875-D775E6D93BBB}"/>
+    <hyperlink ref="T25" r:id="rId295" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FDF3B4E8-AD7C-7A4E-B340-B453D1FFD286}"/>
+    <hyperlink ref="U25" r:id="rId296" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{62E0DDFB-A839-C74E-9687-2322890A1C9C}"/>
+    <hyperlink ref="V25" r:id="rId297" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A26D5E1C-D042-C04E-A915-8880A707F5D1}"/>
+    <hyperlink ref="W25" r:id="rId298" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{73985D98-6C44-BC45-8F3F-BB50071F0D3C}"/>
+    <hyperlink ref="X25" r:id="rId299" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612756&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{25E4FBC4-ACB2-804C-A7D9-5E27D08E6564}"/>
+    <hyperlink ref="A26" r:id="rId300" display="https://www.nba.com/stats/team/1610612757/traditional/" xr:uid="{1A161213-7445-E549-A42C-F6761135115E}"/>
+    <hyperlink ref="H26" r:id="rId301" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8B21E10A-FB51-394B-A2D1-787E37B26E62}"/>
+    <hyperlink ref="I26" r:id="rId302" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B6AC47D5-4680-3F4C-9CF0-C979BDCAB111}"/>
+    <hyperlink ref="K26" r:id="rId303" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FB8F7D5B-1FAF-DD4F-8F95-99C8BD57D8E1}"/>
+    <hyperlink ref="L26" r:id="rId304" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{526ED803-5897-BE46-8F3D-FBC90ACBF5E5}"/>
+    <hyperlink ref="Q26" r:id="rId305" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DE2563F6-E041-7245-AFC9-90640315DA66}"/>
+    <hyperlink ref="R26" r:id="rId306" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E29C8CD8-609F-1746-A562-D0C0BF149A2D}"/>
+    <hyperlink ref="S26" r:id="rId307" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{BF8F5397-EB89-D24A-ACF8-0BF152B66344}"/>
+    <hyperlink ref="T26" r:id="rId308" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{871D6428-9F4C-BD45-A1F1-E4946A8CDF0C}"/>
+    <hyperlink ref="U26" r:id="rId309" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F2ACA8B5-C0D6-C742-AC40-3298B1DED176}"/>
+    <hyperlink ref="V26" r:id="rId310" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EEC6D877-78F3-2243-B944-EB42C22404E0}"/>
+    <hyperlink ref="W26" r:id="rId311" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{1C953E0D-B7A9-9546-9FFB-E38F264141BB}"/>
+    <hyperlink ref="X26" r:id="rId312" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612757&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{33B82E0A-7C24-0C41-B681-8F00159B9A0C}"/>
+    <hyperlink ref="A27" r:id="rId313" display="https://www.nba.com/stats/team/1610612758/traditional/" xr:uid="{42819A81-D3B6-0548-A62A-DB958DD6A3E5}"/>
+    <hyperlink ref="H27" r:id="rId314" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A3296C53-3C6E-8544-BE8D-6FFCEB530435}"/>
+    <hyperlink ref="I27" r:id="rId315" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F14AC3CE-9DC9-634C-A0C6-E2AECF0E0C23}"/>
+    <hyperlink ref="K27" r:id="rId316" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{48F78525-17BA-F74C-A7A6-6EE34CC92A76}"/>
+    <hyperlink ref="L27" r:id="rId317" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9181F446-28AF-AC4A-9DD7-FFA1FBEC23D9}"/>
+    <hyperlink ref="Q27" r:id="rId318" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FB19418B-D712-1541-8258-ACE12B1D92DC}"/>
+    <hyperlink ref="R27" r:id="rId319" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8DF6B6D7-F9FD-CE49-924C-F5399772DBE4}"/>
+    <hyperlink ref="S27" r:id="rId320" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CF33D178-4949-B645-9E63-468C8F111D75}"/>
+    <hyperlink ref="T27" r:id="rId321" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D243A9B1-6E36-F24E-AC46-0C2907885B24}"/>
+    <hyperlink ref="U27" r:id="rId322" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{93C9EAB1-9C58-B14B-B94E-751CBA5463A4}"/>
+    <hyperlink ref="V27" r:id="rId323" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EA531534-4858-F544-83FD-E30FA1312C36}"/>
+    <hyperlink ref="W27" r:id="rId324" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2030B81F-D83B-A947-819F-028F3A71C6CD}"/>
+    <hyperlink ref="X27" r:id="rId325" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612758&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{2ABF2ACA-A50B-F343-8B22-227EFD600EA0}"/>
+    <hyperlink ref="A28" r:id="rId326" display="https://www.nba.com/stats/team/1610612759/traditional/" xr:uid="{775203C3-805C-304D-9BD5-53477F423D45}"/>
+    <hyperlink ref="H28" r:id="rId327" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B74E9284-6D51-E148-B087-40416BBEE95F}"/>
+    <hyperlink ref="I28" r:id="rId328" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F31E7492-2F24-AF42-81A5-C003C9269FEA}"/>
+    <hyperlink ref="K28" r:id="rId329" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{614CAB15-19FB-3448-8496-E7FD198E7D73}"/>
+    <hyperlink ref="L28" r:id="rId330" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CFD7AFB0-2282-5749-ABF8-5A0BCB20FE1F}"/>
+    <hyperlink ref="Q28" r:id="rId331" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6027C60A-F003-644A-A60E-EE4F5886201C}"/>
+    <hyperlink ref="R28" r:id="rId332" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6659CF93-F870-2641-A300-496AD9FA5754}"/>
+    <hyperlink ref="S28" r:id="rId333" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8A1C0A2A-7C59-3546-998C-223055181653}"/>
+    <hyperlink ref="T28" r:id="rId334" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A78AB84C-BC95-2A49-AE91-7B48E0CABD30}"/>
+    <hyperlink ref="U28" r:id="rId335" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CC45E64C-2513-6645-A332-0695F6957C28}"/>
+    <hyperlink ref="V28" r:id="rId336" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6D296DED-28C5-CC4F-A837-C2BADBDB4AE3}"/>
+    <hyperlink ref="W28" r:id="rId337" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{59DBCEA6-7D70-7140-A3AF-6CC8057C4FFE}"/>
+    <hyperlink ref="X28" r:id="rId338" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612759&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{EBA46C63-EF8D-3143-9E28-3411A8825C58}"/>
+    <hyperlink ref="A29" r:id="rId339" display="https://www.nba.com/stats/team/1610612761/traditional/" xr:uid="{0BD9D24C-FADC-0649-97E8-C578C265BFA6}"/>
+    <hyperlink ref="H29" r:id="rId340" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D735DF0B-1F04-3B4B-9505-96FC4496D1C4}"/>
+    <hyperlink ref="I29" r:id="rId341" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{044D7FFC-7D19-A746-92F1-1F39670B8855}"/>
+    <hyperlink ref="K29" r:id="rId342" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7829FB09-C969-B64C-889B-78AC1B24D921}"/>
+    <hyperlink ref="L29" r:id="rId343" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{83E04136-61AE-B940-A3CA-0A709F632456}"/>
+    <hyperlink ref="Q29" r:id="rId344" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4A617321-F098-DA40-BE3F-8B77A262B7F1}"/>
+    <hyperlink ref="R29" r:id="rId345" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{130EFC13-9158-2B4D-BBB6-193CBA371695}"/>
+    <hyperlink ref="S29" r:id="rId346" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{67BDF5C1-08C2-6248-A8F6-627BB7FED79B}"/>
+    <hyperlink ref="T29" r:id="rId347" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{002578FC-027F-E648-83A1-2031F2E200DE}"/>
+    <hyperlink ref="U29" r:id="rId348" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{855B89E1-E79C-C840-BC75-282FC8C77119}"/>
+    <hyperlink ref="V29" r:id="rId349" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9B6D0D86-4794-C947-AB5F-A352D4803354}"/>
+    <hyperlink ref="W29" r:id="rId350" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{85C2C3B8-ED2C-4949-905C-4AA7BBD6BA60}"/>
+    <hyperlink ref="X29" r:id="rId351" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612761&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6244A4B7-FA26-4B4B-9D1B-1FB28D73E927}"/>
+    <hyperlink ref="A30" r:id="rId352" display="https://www.nba.com/stats/team/1610612762/traditional/" xr:uid="{1DCCAF55-8BD7-8143-B92A-921138AB1E83}"/>
+    <hyperlink ref="H30" r:id="rId353" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E2D84999-BC74-894F-B777-F839ED985995}"/>
+    <hyperlink ref="I30" r:id="rId354" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{FD62615F-0057-A447-85C3-4968C5425C59}"/>
+    <hyperlink ref="K30" r:id="rId355" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6ACD11DC-A0E9-054C-AB60-AF216239005B}"/>
+    <hyperlink ref="L30" r:id="rId356" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{CBDC4CB8-4179-894C-B238-61390AD9CF58}"/>
+    <hyperlink ref="Q30" r:id="rId357" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6FA87B87-FE3F-E24D-A238-CFCFE68E6B07}"/>
+    <hyperlink ref="R30" r:id="rId358" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{C4B41FDA-682F-2844-A854-A5E6F00D60BA}"/>
+    <hyperlink ref="S30" r:id="rId359" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{56D9803D-2A61-204B-BDFF-D8CCBA411C4E}"/>
+    <hyperlink ref="T30" r:id="rId360" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B04DA02E-6240-0D4F-9960-4D246CBB3A16}"/>
+    <hyperlink ref="U30" r:id="rId361" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{48447A77-2777-E041-A939-395163218123}"/>
+    <hyperlink ref="V30" r:id="rId362" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4018F270-E57C-E448-B989-F7AC45F2FBAE}"/>
+    <hyperlink ref="W30" r:id="rId363" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{7046D40D-2D01-884F-93EF-71C006A15CD3}"/>
+    <hyperlink ref="X30" r:id="rId364" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612762&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{9B5D5C67-6FEE-2046-9E4F-7BA61DD05708}"/>
+    <hyperlink ref="A31" r:id="rId365" display="https://www.nba.com/stats/team/1610612764/traditional/" xr:uid="{1C8511A7-4F13-6F46-9D26-517F1038213A}"/>
+    <hyperlink ref="H31" r:id="rId366" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{4B19FF26-2C67-9747-8DDB-628552680F60}"/>
+    <hyperlink ref="I31" r:id="rId367" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D28456F9-B509-3A48-B7A4-CA512D077C45}"/>
+    <hyperlink ref="K31" r:id="rId368" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{F5E9C4B7-13E9-6041-AA00-9EB87E2E4F9B}"/>
+    <hyperlink ref="L31" r:id="rId369" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A21A42EF-2F66-4D44-9A7B-91F7458AB16B}"/>
+    <hyperlink ref="Q31" r:id="rId370" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{71E1B835-F274-3B47-BE68-E2F3E65BC211}"/>
+    <hyperlink ref="R31" r:id="rId371" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E489B348-5C19-7C44-B985-34A719844B73}"/>
+    <hyperlink ref="S31" r:id="rId372" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{AC35F860-7225-484D-BD8A-2AB91015DF91}"/>
+    <hyperlink ref="T31" r:id="rId373" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{8BFD27C7-D50D-6649-B3B1-7BE20AD66559}"/>
+    <hyperlink ref="U31" r:id="rId374" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{DAB99012-715D-8342-92D6-7F58D08A3812}"/>
+    <hyperlink ref="V31" r:id="rId375" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A8333C1B-C2FC-164F-9D6C-1801352457B3}"/>
+    <hyperlink ref="W31" r:id="rId376" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{E3FAD329-DFCD-AA44-8231-8D0AEF81C1CC}"/>
+    <hyperlink ref="X31" r:id="rId377" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612764&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{198BDB74-2D7C-1046-BDDD-B8B0EC3BEBD6}"/>
+    <hyperlink ref="A2" r:id="rId378" display="https://www.nba.com/stats/team/1610612737/traditional/" xr:uid="{E9FCE3DF-0764-6A4E-B130-8F71280EDF3F}"/>
+    <hyperlink ref="H2" r:id="rId379" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{72DF5416-D6CE-D64C-9967-BB19CE10DCE2}"/>
+    <hyperlink ref="I2" r:id="rId380" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{5D41B5BF-1F71-7140-8F23-B5559582B8A3}"/>
+    <hyperlink ref="K2" r:id="rId381" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{14416008-A0C8-D547-8898-D138AE6D7C5B}"/>
+    <hyperlink ref="L2" r:id="rId382" display="https://www.nba.com/stats/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{50BBEA0E-972E-6240-BCF7-D158E9C53E82}"/>
+    <hyperlink ref="Q2" r:id="rId383" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{A5355C58-A63E-CC40-B2A2-3AD17B53A5BC}"/>
+    <hyperlink ref="R2" r:id="rId384" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{0492AB54-1F48-2A4C-9D4D-5357267217C6}"/>
+    <hyperlink ref="S2" r:id="rId385" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{B62435AD-B708-7649-8014-D13FA88DF326}"/>
+    <hyperlink ref="T2" r:id="rId386" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{254335F4-C389-5040-9136-4905EC877282}"/>
+    <hyperlink ref="U2" r:id="rId387" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{D9EF3FD3-2EB0-F34C-8B6D-004A1910FA2C}"/>
+    <hyperlink ref="V2" r:id="rId388" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{6791F7CA-FAE9-C448-A712-1C6819794FFF}"/>
+    <hyperlink ref="W2" r:id="rId389" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{28BC6BC5-6BF6-FB42-AA9C-CBE36A64101F}"/>
+    <hyperlink ref="X2" r:id="rId390" display="https://www.nba.com/stats/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=0&amp;TeamID=1610612737&amp;GameID=&amp;ContextMeasure=BLKA&amp;Season=2018-19&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;TwoWay=0&amp;MeasureType=Base&amp;section=teams" xr:uid="{3D07F6AE-5853-0349-AD80-AC5AFFA47160}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C03AD-85C2-9B43-BE53-9848C0412D50}">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3256</v>
+      </c>
+      <c r="F2" s="8">
+        <v>107</v>
+      </c>
+      <c r="G2" s="8">
+        <v>114.4</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-7.4</v>
+      </c>
+      <c r="I2" s="8">
+        <v>58.9</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="K2" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L2" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="M2" s="8">
+        <v>70.8</v>
+      </c>
+      <c r="N2" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="O2" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="P2" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>55.4</v>
+      </c>
+      <c r="R2" s="8">
+        <v>103.28</v>
+      </c>
+      <c r="S2" s="8">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3486</v>
+      </c>
+      <c r="F3" s="8">
+        <v>112.8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>55.7</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="K3" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="L3" s="8">
+        <v>28.3</v>
+      </c>
+      <c r="M3" s="8">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="N3" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="O3" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="P3" s="8">
+        <v>53.1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>57</v>
+      </c>
+      <c r="R3" s="8">
+        <v>99.92</v>
+      </c>
+      <c r="S3" s="8">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3496</v>
+      </c>
+      <c r="F4" s="8">
+        <v>108.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>109.2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>60.6</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K4" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="L4" s="8">
+        <v>28</v>
+      </c>
+      <c r="M4" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="N4" s="8">
+        <v>51.1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>14.8</v>
+      </c>
+      <c r="P4" s="8">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>55.4</v>
+      </c>
+      <c r="R4" s="8">
+        <v>101.7</v>
+      </c>
+      <c r="S4" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3150</v>
+      </c>
+      <c r="F5" s="8">
+        <v>105.9</v>
+      </c>
+      <c r="G5" s="8">
+        <v>112.8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-7</v>
+      </c>
+      <c r="I5" s="8">
+        <v>63.9</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="K5" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="L5" s="8">
+        <v>28</v>
+      </c>
+      <c r="M5" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N5" s="8">
+        <v>48.6</v>
+      </c>
+      <c r="O5" s="8">
+        <v>15</v>
+      </c>
+      <c r="P5" s="8">
+        <v>50.4</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>53.9</v>
+      </c>
+      <c r="R5" s="8">
+        <v>96.24</v>
+      </c>
+      <c r="S5" s="8">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3135</v>
+      </c>
+      <c r="F6" s="8">
+        <v>105.8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>108.9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-3.1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>58.7</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L6" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="N6" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="P6" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>54.7</v>
+      </c>
+      <c r="R6" s="8">
+        <v>100.46</v>
+      </c>
+      <c r="S6" s="8">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3145</v>
+      </c>
+      <c r="F7" s="8">
+        <v>106.9</v>
+      </c>
+      <c r="G7" s="8">
+        <v>114.8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>-7.9</v>
+      </c>
+      <c r="I7" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="L7" s="8">
+        <v>29.6</v>
+      </c>
+      <c r="M7" s="8">
+        <v>73.8</v>
+      </c>
+      <c r="N7" s="8">
+        <v>51.2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>52.2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="R7" s="8">
+        <v>99.17</v>
+      </c>
+      <c r="S7" s="8">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>75</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3635</v>
+      </c>
+      <c r="F8" s="8">
+        <v>115.9</v>
+      </c>
+      <c r="G8" s="8">
+        <v>111.2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I8" s="8">
+        <v>59.2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="K8" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="L8" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>74</v>
+      </c>
+      <c r="N8" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="O8" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="P8" s="8">
+        <v>54.5</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>58.1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>99.89</v>
+      </c>
+      <c r="S8" s="8">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3549</v>
+      </c>
+      <c r="F9" s="8">
+        <v>112.6</v>
+      </c>
+      <c r="G9" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9" s="8">
+        <v>63.6</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="K9" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L9" s="8">
+        <v>29.4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="O9" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="P9" s="8">
+        <v>53.5</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>56.7</v>
+      </c>
+      <c r="R9" s="8">
+        <v>97.64</v>
+      </c>
+      <c r="S9" s="8">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>46</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3193</v>
+      </c>
+      <c r="F10" s="8">
+        <v>108.8</v>
+      </c>
+      <c r="G10" s="8">
+        <v>112.3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>-3.5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>61.2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="K10" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="L10" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="M10" s="8">
+        <v>71.7</v>
+      </c>
+      <c r="N10" s="8">
+        <v>49.3</v>
+      </c>
+      <c r="O10" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>52.9</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>97.86</v>
+      </c>
+      <c r="S10" s="8">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3145</v>
+      </c>
+      <c r="F11" s="8">
+        <v>104.4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8">
+        <v>-8.6</v>
+      </c>
+      <c r="I11" s="8">
+        <v>66.3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="K11" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="M11" s="8">
+        <v>72.2</v>
+      </c>
+      <c r="N11" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="P11" s="8">
+        <v>49.7</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>54</v>
+      </c>
+      <c r="R11" s="8">
+        <v>101.04</v>
+      </c>
+      <c r="S11" s="8">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8">
+        <v>72</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3476</v>
+      </c>
+      <c r="F12" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>109.8</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I12" s="8">
+        <v>53</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="K12" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>24.9</v>
+      </c>
+      <c r="M12" s="8">
+        <v>71.3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>48</v>
+      </c>
+      <c r="O12" s="8">
+        <v>14</v>
+      </c>
+      <c r="P12" s="8">
+        <v>53.7</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>57.8</v>
+      </c>
+      <c r="R12" s="8">
+        <v>104.04</v>
+      </c>
+      <c r="S12" s="8">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3524</v>
+      </c>
+      <c r="F13" s="8">
+        <v>109.5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>107.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="8">
+        <v>61.4</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="K13" s="8">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L13" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>71.8</v>
+      </c>
+      <c r="N13" s="8">
+        <v>48.7</v>
+      </c>
+      <c r="O13" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="P13" s="8">
+        <v>53.4</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="R13" s="8">
+        <v>99.41</v>
+      </c>
+      <c r="S13" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="8">
+        <v>72</v>
+      </c>
+      <c r="C14" s="8">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3476</v>
+      </c>
+      <c r="F14" s="8">
+        <v>113.3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>106.9</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>57.1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="K14" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L14" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="M14" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="N14" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="O14" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="P14" s="8">
+        <v>53.5</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>57.7</v>
+      </c>
+      <c r="R14" s="8">
+        <v>102.16</v>
+      </c>
+      <c r="S14" s="8">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8">
+        <v>71</v>
+      </c>
+      <c r="C15" s="8">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3418</v>
+      </c>
+      <c r="F15" s="8">
+        <v>111.7</v>
+      </c>
+      <c r="G15" s="8">
+        <v>106.1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I15" s="8">
+        <v>60</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="K15" s="8">
+        <v>18</v>
+      </c>
+      <c r="L15" s="8">
+        <v>28.3</v>
+      </c>
+      <c r="M15" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="N15" s="8">
+        <v>51.2</v>
+      </c>
+      <c r="O15" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="P15" s="8">
+        <v>54.2</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="R15" s="8">
+        <v>101.2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3514</v>
+      </c>
+      <c r="F16" s="8">
+        <v>108.7</v>
+      </c>
+      <c r="G16" s="8">
+        <v>109.7</v>
+      </c>
+      <c r="H16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>63.3</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="K16" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="L16" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>73.3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>50.6</v>
+      </c>
+      <c r="O16" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="P16" s="8">
+        <v>52.8</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>103.31</v>
+      </c>
+      <c r="S16" s="8">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8">
+        <v>73</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3549</v>
+      </c>
+      <c r="F17" s="8">
+        <v>111.9</v>
+      </c>
+      <c r="G17" s="8">
+        <v>109.3</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I17" s="8">
+        <v>65.7</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="K17" s="8">
+        <v>18.8</v>
+      </c>
+      <c r="L17" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="M17" s="8">
+        <v>75.3</v>
+      </c>
+      <c r="N17" s="8">
+        <v>51.2</v>
+      </c>
+      <c r="O17" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="P17" s="8">
+        <v>54.7</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>58.7</v>
+      </c>
+      <c r="R17" s="8">
+        <v>98.7</v>
+      </c>
+      <c r="S17" s="8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="8">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3519</v>
+      </c>
+      <c r="F18" s="8">
+        <v>111.9</v>
+      </c>
+      <c r="G18" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="I18" s="8">
+        <v>59.8</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="K18" s="8">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="N18" s="8">
+        <v>52.4</v>
+      </c>
+      <c r="O18" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="P18" s="8">
+        <v>55.2</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>58.3</v>
+      </c>
+      <c r="R18" s="8">
+        <v>105.51</v>
+      </c>
+      <c r="S18" s="8">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3112</v>
+      </c>
+      <c r="F19" s="8">
+        <v>107.6</v>
+      </c>
+      <c r="G19" s="8">
+        <v>111.6</v>
+      </c>
+      <c r="H19" s="8">
+        <v>-4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>59</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="K19" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="L19" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="M19" s="8">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="N19" s="8">
+        <v>48.8</v>
+      </c>
+      <c r="O19" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="P19" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>55.1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>103.94</v>
+      </c>
+      <c r="S19" s="8">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8">
+        <v>42</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3486</v>
+      </c>
+      <c r="F20" s="8">
+        <v>110.5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>111.8</v>
+      </c>
+      <c r="H20" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>63</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="K20" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L20" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="M20" s="8">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N20" s="8">
+        <v>50.8</v>
+      </c>
+      <c r="O20" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="P20" s="8">
+        <v>53.9</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>56.8</v>
+      </c>
+      <c r="R20" s="8">
+        <v>103.89</v>
+      </c>
+      <c r="S20" s="8">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="8">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8">
+        <v>21</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3193</v>
+      </c>
+      <c r="F21" s="8">
+        <v>105.9</v>
+      </c>
+      <c r="G21" s="8">
+        <v>112.4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>-6.5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>55.2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="K21" s="8">
+        <v>16</v>
+      </c>
+      <c r="L21" s="8">
+        <v>30</v>
+      </c>
+      <c r="M21" s="8">
+        <v>74.2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>51.3</v>
+      </c>
+      <c r="O21" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="P21" s="8">
+        <v>50.1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>53.1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>99.11</v>
+      </c>
+      <c r="S21" s="8">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8">
+        <v>72</v>
+      </c>
+      <c r="C22" s="8">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8">
+        <v>28</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3486</v>
+      </c>
+      <c r="F22" s="8">
+        <v>110.1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>108.1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>54.3</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="K22" s="8">
+        <v>16.3</v>
+      </c>
+      <c r="L22" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>72.8</v>
+      </c>
+      <c r="N22" s="8">
+        <v>49.2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="P22" s="8">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="R22" s="8">
+        <v>99.42</v>
+      </c>
+      <c r="S22" s="8">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="8">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3514</v>
+      </c>
+      <c r="F23" s="8">
+        <v>107.9</v>
+      </c>
+      <c r="G23" s="8">
+        <v>109.2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>60.8</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="K23" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="M23" s="8">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="N23" s="8">
+        <v>50</v>
+      </c>
+      <c r="O23" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="P23" s="8">
+        <v>50.6</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>54.4</v>
+      </c>
+      <c r="R23" s="8">
+        <v>98.99</v>
+      </c>
+      <c r="S23" s="8">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8">
+        <v>73</v>
+      </c>
+      <c r="C24" s="8">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8">
+        <v>30</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3519</v>
+      </c>
+      <c r="F24" s="8">
+        <v>110.7</v>
+      </c>
+      <c r="G24" s="8">
+        <v>108.4</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I24" s="8">
+        <v>62.8</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1.82</v>
+      </c>
+      <c r="K24" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="L24" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>75.3</v>
+      </c>
+      <c r="N24" s="8">
+        <v>51.6</v>
+      </c>
+      <c r="O24" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="P24" s="8">
+        <v>53.4</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>56.6</v>
+      </c>
+      <c r="R24" s="8">
+        <v>99.59</v>
+      </c>
+      <c r="S24" s="8">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8">
+        <v>39</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3519</v>
+      </c>
+      <c r="F25" s="8">
+        <v>111.3</v>
+      </c>
+      <c r="G25" s="8">
+        <v>110.8</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="K25" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="L25" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="N25" s="8">
+        <v>49.8</v>
+      </c>
+      <c r="O25" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="P25" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>57.6</v>
+      </c>
+      <c r="R25" s="8">
+        <v>101.74</v>
+      </c>
+      <c r="S25" s="8">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <v>74</v>
+      </c>
+      <c r="C26" s="8">
+        <v>35</v>
+      </c>
+      <c r="D26" s="8">
+        <v>39</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3567</v>
+      </c>
+      <c r="F26" s="8">
+        <v>113.2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>114.3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I26" s="8">
+        <v>48.8</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="K26" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="L26" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="M26" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="N26" s="8">
+        <v>49.2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="P26" s="8">
+        <v>53.3</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>57</v>
+      </c>
+      <c r="R26" s="8">
+        <v>101.17</v>
+      </c>
+      <c r="S26" s="8">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>72</v>
+      </c>
+      <c r="C27" s="8">
+        <v>31</v>
+      </c>
+      <c r="D27" s="8">
+        <v>41</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F27" s="8">
+        <v>109.5</v>
+      </c>
+      <c r="G27" s="8">
+        <v>111.4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>-1.9</v>
+      </c>
+      <c r="I27" s="8">
+        <v>58.2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="K27" s="8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L27" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="M27" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="N27" s="8">
+        <v>49.2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="P27" s="8">
+        <v>53.4</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>56.6</v>
+      </c>
+      <c r="R27" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="S27" s="8">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>71</v>
+      </c>
+      <c r="C28" s="8">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8">
+        <v>39</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3443</v>
+      </c>
+      <c r="F28" s="8">
+        <v>111.7</v>
+      </c>
+      <c r="G28" s="8">
+        <v>112.6</v>
+      </c>
+      <c r="H28" s="8">
+        <v>-0.9</v>
+      </c>
+      <c r="I28" s="8">
+        <v>58.5</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1.96</v>
+      </c>
+      <c r="K28" s="8">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L28" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="M28" s="8">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N28" s="8">
+        <v>49.5</v>
+      </c>
+      <c r="O28" s="8">
+        <v>12.3</v>
+      </c>
+      <c r="P28" s="8">
+        <v>53.1</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>57.2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>101.14</v>
+      </c>
+      <c r="S28" s="8">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8">
+        <v>53</v>
+      </c>
+      <c r="D29" s="8">
+        <v>19</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3476</v>
+      </c>
+      <c r="F29" s="8">
+        <v>110.8</v>
+      </c>
+      <c r="G29" s="8">
+        <v>104.7</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>62.7</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="K29" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L29" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="M29" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="N29" s="8">
+        <v>49.6</v>
+      </c>
+      <c r="O29" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="P29" s="8">
+        <v>53.6</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>57.4</v>
+      </c>
+      <c r="R29" s="8">
+        <v>101.19</v>
+      </c>
+      <c r="S29" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>72</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44</v>
+      </c>
+      <c r="D30" s="8">
+        <v>28</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3471</v>
+      </c>
+      <c r="F30" s="8">
+        <v>111.8</v>
+      </c>
+      <c r="G30" s="8">
+        <v>109.3</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="8">
+        <v>56</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="K30" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="L30" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N30" s="8">
+        <v>51.2</v>
+      </c>
+      <c r="O30" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="P30" s="8">
+        <v>54.9</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>58.5</v>
+      </c>
+      <c r="R30" s="8">
+        <v>99.15</v>
+      </c>
+      <c r="S30" s="8">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>72</v>
+      </c>
+      <c r="C31" s="8">
+        <v>25</v>
+      </c>
+      <c r="D31" s="8">
+        <v>47</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3471</v>
+      </c>
+      <c r="F31" s="8">
+        <v>110.2</v>
+      </c>
+      <c r="G31" s="8">
+        <v>114.7</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-4.5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>60.2</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="K31" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L31" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="M31" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="N31" s="8">
+        <v>47.8</v>
+      </c>
+      <c r="O31" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="P31" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="R31" s="8">
+        <v>103.38</v>
+      </c>
+      <c r="S31" s="8">
+        <v>47.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.nba.com/stats/team/1610612737/traditional/?" xr:uid="{DAD0B8FB-25A0-6649-851B-394BED39C24C}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.nba.com/stats/team/1610612738/traditional/?" xr:uid="{7399B900-4015-5842-850D-7DF4F382B4DC}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.nba.com/stats/team/1610612751/traditional/?" xr:uid="{15A8244D-7DEB-B34F-8B7B-D13F4C4AFA4D}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.nba.com/stats/team/1610612766/traditional/?" xr:uid="{4FB787C7-06D6-694F-A292-14DCF6FD0292}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.nba.com/stats/team/1610612741/traditional/?" xr:uid="{D7336D3D-5A53-F24A-927C-065CED499DB5}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.nba.com/stats/team/1610612739/traditional/?" xr:uid="{0893960B-FFBB-8745-879F-2A8153306467}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.nba.com/stats/team/1610612742/traditional/?" xr:uid="{8FEBF164-BDD5-9342-9E04-FECB1A56B585}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.nba.com/stats/team/1610612743/traditional/?" xr:uid="{ADAE80BE-6FEB-3842-8E5F-B17C7B214027}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.nba.com/stats/team/1610612765/traditional/?" xr:uid="{CD6FDFDC-3068-7E43-9B63-7F5A1CCA1F82}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.nba.com/stats/team/1610612744/traditional/?" xr:uid="{8586CEAC-7868-5C47-A1BA-4CE0D5B7CD6A}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.nba.com/stats/team/1610612745/traditional/?" xr:uid="{4F4F11C1-C9BA-524E-8C06-F9E1B13EE5EF}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.nba.com/stats/team/1610612754/traditional/?" xr:uid="{CDF865E7-DC4A-5340-90D7-E5CB6CD5AD05}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.nba.com/stats/team/1610612746/traditional/?" xr:uid="{EDC300C7-7B00-234A-8AFA-81F95A51AE3C}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://www.nba.com/stats/team/1610612747/traditional/?" xr:uid="{D099B4E2-16A1-7946-B1CF-9D9A7F73AECB}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://www.nba.com/stats/team/1610612763/traditional/?" xr:uid="{D5814320-B508-6A4D-A5CF-D0489D339199}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.nba.com/stats/team/1610612748/traditional/?" xr:uid="{65BDBDB7-283C-0B4E-A128-BAE08943D883}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.nba.com/stats/team/1610612749/traditional/?" xr:uid="{B6ED8D08-EE09-AB4E-91D1-FEA60B6DA1D9}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://www.nba.com/stats/team/1610612750/traditional/?" xr:uid="{873736AB-B0E4-C044-AB3E-F8FE89BEF104}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.nba.com/stats/team/1610612740/traditional/?" xr:uid="{2C0EC6EA-5AFF-EB42-AC01-7FBB3391B71E}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.nba.com/stats/team/1610612752/traditional/?" xr:uid="{883BCDCA-E23C-624D-97A7-5832E511C150}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://www.nba.com/stats/team/1610612760/traditional/?" xr:uid="{C53874BF-51F2-4149-9C5A-D06785859758}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://www.nba.com/stats/team/1610612753/traditional/?" xr:uid="{9BB7BA9B-6552-9140-BE5C-FE0A3A03E809}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://www.nba.com/stats/team/1610612755/traditional/?" xr:uid="{F6E165E7-2DC4-BD41-ABEE-52F9495E85A8}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://www.nba.com/stats/team/1610612756/traditional/?" xr:uid="{E338C229-B45A-AB49-9BCA-CBD1D6FB60C5}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://www.nba.com/stats/team/1610612757/traditional/?" xr:uid="{A91E3580-BE6E-424D-9B5D-35532E50F529}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://www.nba.com/stats/team/1610612758/traditional/?" xr:uid="{3442AC54-8BC7-1548-8790-18755856D2FF}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://www.nba.com/stats/team/1610612759/traditional/?" xr:uid="{FC58DC95-936A-F44E-AC0F-1571C5E217A3}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://www.nba.com/stats/team/1610612761/traditional/?" xr:uid="{AE2C74BD-8EEB-764A-BDAC-A0490E4E1F95}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://www.nba.com/stats/team/1610612762/traditional/?" xr:uid="{AFD9FC8E-F914-A84A-85FB-2BA246272FAF}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://www.nba.com/stats/team/1610612764/traditional/?" xr:uid="{04460F6D-D8AE-7846-9BD5-8F05693305AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D471B25-8BEA-4B4F-AB59-A4C139BE8287}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -8748,7 +14095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97066FE1-24DA-FA4A-9C5B-CB0192C36653}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AH17"/>
     </sheetView>
   </sheetViews>
@@ -15918,7 +21265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B775558F-9E15-FF4C-B701-07AF3125B920}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z1" sqref="U1:Z1"/>
     </sheetView>
   </sheetViews>
